--- a/phones.xlsx
+++ b/phones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,66 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/avtomobili/citroen_spacetourer_2.0_at_2021_84_500_km_7785479803</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+79618328876</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/avtomobili/mercedes-benz_gls-klass_2.9_at_2022_57_000_km_7739620763</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>+79584715606</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/avtomobili/land_rover_range_rover_sport_3.0_at_2020_160_000_km_7769657648</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+79584725610</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/avtomobili/kia_cerato_1.6_at_2019_100_300_km_7727015823</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>+79813336164</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/avtomobili/kia_optima_2.0_at_2018_136_000_km_7775745682</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>+79587005732</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/phones.xlsx
+++ b/phones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B495"/>
+  <dimension ref="A1:B693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,5928 +448,8304 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/toyota_land_cruiser_4.7_at_2005_396_000_km_7785666612</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_chastnik_3993344935</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+79325121479</t>
+          <t>+79660422843</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/toyota_fj_cruiser_4.0_at_2010_147_000_km_7708871890</t>
+          <t>https://www.avito.ru/pavlovskiy_posad/predlozheniya_uslug/remont_kvartir_3509903261</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+79325124918</t>
+          <t>+79032627683</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/chevrolet_captiva_2.4_mt_2012_153_000_km_7679656979</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/demontazh_kvartir_pod_klyuch_s_vyvozom_musora_7306280333</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+79587595588</t>
+          <t>+79587162215</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/mitsubishi_pajero_sport_2.5_at_2011_360_000_km_7687499489</t>
+          <t>https://www.avito.ru/golitsyno/predlozheniya_uslug/remont_kvartir._otdelka_kvartir_pod_klyuch_garantiya_7724113475</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>+79584886406</t>
+          <t>+79660434730</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovskaya_oblast_shuya/avtomobili/kia_rio_1.6_at_2020_74_956_km_4265421160</t>
+          <t>https://www.avito.ru/vereya/predlozheniya_uslug/remont_kvartir._otdelka_kvartir_pod_klyuch_garantiya_7724710204</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+79365707363</t>
+          <t>+79660434730</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/smolensk/avtomobili/kia_sorento_2.2_at_2010_200_000_km_7704852317</t>
+          <t>https://www.avito.ru/protvino/predlozheniya_uslug/remont_kvartir._otdelka_kvartir_pod_klyuch_garantiya_7724098460</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>+79809716503</t>
+          <t>+79660434730</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/ford_focus_1.6_mt_2017_85_700_km_7475605950</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_i_otdelka_kvartir_domov_7759939598</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>+79587928698</t>
+          <t>+79587177617</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/murom/avtomobili/hyundai_creta_1.6_mt_2017_190_500_km_7715867040</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_ivanteevka/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7759552927</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>+79365655157</t>
+          <t>+79012544554</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/ford_focus_2.0_mt_2012_117_119_km_7721498611</t>
+          <t>https://www.avito.ru/stupino/predlozheniya_uslug/remont_kvartir._otdelka_kvartir_pod_klyuch_garantiya_7724108950</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>+79365663654</t>
+          <t>+79660434730</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/michurinsk/avtomobili/kia_rio_1.6_mt_2015_146_000_km_7772304459</t>
+          <t>https://www.avito.ru/lobnya/predlozheniya_uslug/remont_i_otdelka_kvartir_domov_garantiya_5_let_2628244545</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>+79894386416</t>
+          <t>+79587423114</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/ford_mustang_2.3_at_2019_125_000_km_2782762552</t>
+          <t>https://www.avito.ru/sergiev_posad/predlozheniya_uslug/remont_kvartir_ofisov_i_chastnyh_domov_pod_klyuch_2368848472</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>+79587364108</t>
+          <t>+79584828209</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/dzerzhinsk/avtomobili/porsche_macan_s_3.0_amt_2016_238_985_km_4308898426</t>
+          <t>https://www.avito.ru/lobnya/predlozheniya_uslug/remont_kvartir_i_domov_lyuboy_slozhnosti_pod_klyuch_4238998583</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>+79587485513</t>
+          <t>+79587423114</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/voyah_free_1.5_at_2023_18_100_km_7729464690</t>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_vannoy_tualet_pod_klyuch_2699924798</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>+79587144058</t>
+          <t>+79584671045</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/dolgoprudnyy/avtomobili/kia_optima_2.0_at_2018_527_000_km_7787643838</t>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_kvartir_pod_klyuch_melkiy_remont_7852977377</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>+79584889308</t>
+          <t>+79663867163</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kaluga/avtomobili/bmw_5_seriya_2.5_at_2008_320_000_km_7740619158</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_moskva_mo_7769504801</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>+79394096176</t>
+          <t>+79666679727</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/rybinsk/avtomobili/volkswagen_polo_1.6_mt_2013_150_000_km_7730357965</t>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/remont_kvartir_pod_klyuch_7694476609</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>+79394085305</t>
+          <t>+79587097475</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/obninsk/avtomobili/audi_a6_2.0_cvt_2012_170_000_km_7312236086</t>
+          <t>https://www.avito.ru/scherbinka/predlozheniya_uslug/remont_kvartir_pod_klyuch._otdelka_kvartir_7550231313</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>+79665665871</t>
+          <t>+79326935949</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/hyundai_tucson_2.0_at_2016_153_369_km_7760556504</t>
+          <t>https://www.avito.ru/dedovsk/predlozheniya_uslug/remont_kvartir_pod_klyuch._otdelka_kvartir_7550473438</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>+79587596942</t>
+          <t>+79326935949</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kommunarka/avtomobili/lexus_rx_2.0_at_2016_197_500_km_7772823615</t>
+          <t>https://www.avito.ru/naro-fominsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_3647548418</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>+79697760924</t>
+          <t>+79326935949</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/arzamas/avtomobili/nissan_x-trail_2.0_cvt_2019_96_050_km_7728280724</t>
+          <t>https://www.avito.ru/solnechnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_predoplat_3646925637</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>+79587265019</t>
+          <t>+79326935949</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kursk/avtomobili/skoda_rapid_1.6_mt_2020_197_455_km_7787902193</t>
+          <t>https://www.avito.ru/lobnya/predlozheniya_uslug/remont_kvartir_pod_klyuch._otdelka_kvartir_7550322573</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>+79325139524</t>
+          <t>+79326935949</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/emmauss/avtomobili/toyota_rav4_2.0_cvt_2011_224_000_km_7631993035</t>
+          <t>https://www.avito.ru/yahroma/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch._otdelka_kvartir_7785494750</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>+79612981584</t>
+          <t>+79647098466</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/cherepovets/avtomobili/bmw_x5_3.0_at_2018_206_000_km_7707120969</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7772285892</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>+79927061020</t>
+          <t>+79365791282</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orel/avtomobili/mitsubishi_pajero_sport_2.5_at_2013_155_000_km_7710518966</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7768669024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>+79675486749</t>
+          <t>+79584730795</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kaluga/avtomobili/renault_duster_1.5_mt_2013_97_000_km_7698250481</t>
+          <t>https://www.avito.ru/skoropuskovskiy/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch._otdelka_kvartir_7785627394</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>+79623734851</t>
+          <t>+79647098466</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/mitsubishi_outlander_2.4_cvt_2015_100_271_km_7714863100</t>
+          <t>https://www.avito.ru/verbilki/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch._otdelka_kvartir_7785135783</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>+79675497829</t>
+          <t>+79647098466</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vorotynsk/avtomobili/gaz_gazel_next_2.8_mt_2017_437_626_km_7593464237</t>
+          <t>https://www.avito.ru/bolshie_vyazemy/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch._otdelka_kvartir_7785793556</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>+79665664543</t>
+          <t>+79647098466</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazan/avtomobili/mercedes-benz_e-klass_2.0_at_2016_107_500_km_7697912730</t>
+          <t>https://www.avito.ru/fryazino/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch._otdelka_kvartir_7785487815</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>+79678158044</t>
+          <t>+79647098466</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/rzhev/avtomobili/volkswagen_caravelle_2.5_mt_2009_377_000_km_7545353527</t>
+          <t>https://www.avito.ru/bronnitsy/predlozheniya_uslug/remont_kvartir_7771550471</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>+79927069064</t>
+          <t>+79584851033</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/maloyaroslavets/avtomobili/vaz_lada_largus_1.6_mt_2014_50_000_km_7319795128</t>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_s_garantiey_7427117618</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>+79623708041</t>
+          <t>+79587902155</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/uzlovaya/avtomobili/nissan_patrol_3.0_at_2007_184_000_km_7736744682</t>
+          <t>https://www.avito.ru/kotelniki/predlozheniya_uslug/elektromontazhnye_raboty_7771368163</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>+79099615052</t>
+          <t>+79587946287</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/gaz_gazel_next_2.8_mt_2020_184_750_km_7697296362</t>
+          <t>https://www.avito.ru/solnechnogorsk/predlozheniya_uslug/remont_i_otdelka_kvartir_7730691613</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>+79587932239</t>
+          <t>+79587578340</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/zmievka/avtomobili/volkswagen_jetta_1.4_amt_2013_188_000_km_7785523810</t>
+          <t>https://www.avito.ru/pavlovskaya_sloboda/predlozheniya_uslug/remont_i_otdelka_kvartir_v_pavlovskoy_slobode_s_ga_7758189875</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>+79675486695</t>
+          <t>+79584821705</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/vaz_lada_niva_legend_1.7_mt_2024_7_400_km_7807476211</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_i_otdelka_kvartir_v_koroleve_s_garantiey_5_let_7758282282</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>+79606168412</t>
+          <t>+79584821705</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kursk/avtomobili/kia_sportage_2.0_at_2008_203_000_km_4581646916</t>
+          <t>https://www.avito.ru/losino-petrovskiy/predlozheniya_uslug/remont_i_otdelka_kvartir_v_losino-petrovskom_s_garantiey_5_let_7758088551</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>+79051587968</t>
+          <t>+79584821705</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/gubkin/avtomobili/vaz_lada_vesta_cross_1.8_mt_2018_138_364_km_7754915415</t>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/remont_i_otdelka_kvartir_v_dmitrove_s_garantiey_5_let_7758210570</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>+79842358937</t>
+          <t>+79584821705</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kursk/avtomobili/mazda_3_1.5_at_2016_119_000_km_7745671604</t>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_i_otdelka_kvartir_v_ramenskom_s_garantiey_5_let_7758611123</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>+79325140567</t>
+          <t>+79584821705</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/avtomobili/bmw_5_seriya_2.0_at_2018_147_000_km_7692091772</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch._chastnaya_brigada_7776412305</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>+79651677173</t>
+          <t>+79587218734</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/gubkin/avtomobili/toyota_corolla_rumion_1.5_cvt_2010_287_926_km_7771068250</t>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch._chastnaya_brigada_7776349097</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>+79842356069</t>
+          <t>+79587218734</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kotelniki/avtomobili/mercedes-benz_e-klass_2.0_at_2019_129_000_km_7694919707</t>
+          <t>https://www.avito.ru/kommunarka/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch._chastnaya_brigada_7776426071</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>+79854995892</t>
+          <t>+79587218734</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/kia_rio_1.6_mt_2015_94_000_km_7698833880</t>
+          <t>https://www.avito.ru/moskva_zelenograd/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch._chastnaya_brigada_7776423638</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>+79587484274</t>
+          <t>+79587218734</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lipetsk/avtomobili/ford_focus_1.6_amt_2017_125_000_km_7459169870</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch._chastnaya_brigada_7776884152</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>+79238296346</t>
+          <t>+79587218734</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/mihnevo/avtomobili/opel_insignia_2.0_at_2018_140_832_km_7700862313</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch._chastnaya_brigada_7776712368</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>+79587002726</t>
+          <t>+79587218734</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yahroma/avtomobili/mercedes-benz_cls-klass_5.5_at_2007_175_000_km_7722705108</t>
+          <t>https://www.avito.ru/reutov/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch._chastnaya_brigada_7776529486</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>+79584667545</t>
+          <t>+79587218734</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/fiat_ducato_2.3_mt_2010_365_000_km_4654888581</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch._chastnaya_brigada_7775957356</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>+79587924465</t>
+          <t>+79587218734</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lipetsk/avtomobili/kia_sorento_3.5_at_2011_217_000_km_4729678251</t>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch._chastnaya_brigada_7776672470</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>+79842397513</t>
+          <t>+79587218734</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/uglich/avtomobili/ford_mondeo_2.5_at_2018_185_000_km_7521814962</t>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch._chastnaya_brigada_7776274320</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>+79605369817</t>
+          <t>+79587218734</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kursk/avtomobili/renault_kaptur_1.6_mt_2019_189_570_km_7689800693</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7781918721</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>+79325139285</t>
+          <t>+79660422117</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/porsche_taycan_at_2020_53_000_km_7831038819</t>
+          <t>https://www.avito.ru/klin/predlozheniya_uslug/remont_kvartir_4185085960</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>+79587023663</t>
+          <t>+79587520428</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/balashiha/avtomobili/volkswagen_tiguan_2.0_amt_2018_95_915_km_7695266107</t>
+          <t>https://www.avito.ru/orehovo-zuevo/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_2282802190</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>+79617621218</t>
+          <t>+79651791550</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lesnoy_gorodok/avtomobili/lexus_lx_5.7_at_2017_160_000_km_4201052172</t>
+          <t>https://www.avito.ru/moskva_zelenograd/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_4470689432</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>+79098297482</t>
+          <t>+79584670009</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazan/avtomobili/haval_f7_2.0_amt_2022_95_000_km_7709301021</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_7719081251</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>+79330214749</t>
+          <t>+79587155677</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/znamya_oktyabrya/avtomobili/bmw_5_seriya_3.0_at_2001_325_000_km_7831356462</t>
+          <t>https://www.avito.ru/dzerzhinskiy/predlozheniya_uslug/kachestvennyy_remont_kvartirdomov_chastnye_mastera_3981170430</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>+79584864709</t>
+          <t>+79061615277</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/sven/avtomobili/renault_grand_scenic_1.8_mt_2018_197_000_km_7740119944</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_i_ofisov_7778844722</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>+79045624001</t>
+          <t>+79586168432</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bryansk/avtomobili/hyundai_solaris_1.6_at_2021_47_000_km_7710130723</t>
+          <t>https://www.avito.ru/moskva_zelenograd/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7522570799</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>+79380836770</t>
+          <t>+79584825810</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/chevrolet_express_5.3_at_2012_342_100_km_7760205075</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_moskovskiy/predlozheniya_uslug/remont_kvartir_pokleyka_i_pokraska_oboev_7722385769</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>+79662224534</t>
+          <t>+79057367694</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/pikalevo/avtomobili/mitsubishi_lancer_1.5_mt_2011_80_000_km_7733073945</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_moskva_7785302573</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>+79657557516</t>
+          <t>+79587933982</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kireevsk/avtomobili/mercedes-benz_e-klass_3.5_at_2011_200_000_km_7727941158</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_remont_domov_7710461402</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>+79315221530</t>
+          <t>+79944415336</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazan/avtomobili/toyota_land_cruiser_4.0_at_2022_55_000_km_7786307444</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_i_chastichnyy_remont_1090094280</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>+79303289325</t>
+          <t>+79587561251</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/volvo_xc70_2.4_at_2011_80_162_km_7769229136</t>
+          <t>https://www.avito.ru/klin/predlozheniya_uslug/remont_kvartir_4317304085</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>+79587535768</t>
+          <t>+79587520428</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/buick_riviera_7.5_at_1972_100_000_km_7704157749</t>
+          <t>https://www.avito.ru/taldom/predlozheniya_uslug/remont_kvartir_pod_klyuch_7693112894</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>+79587103084</t>
+          <t>+79836607434</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/bmw_5_seriya_2.0_at_2016_209_658_km_7831016120</t>
+          <t>https://www.avito.ru/lms/predlozheniya_uslug/dizaynerskiy_remont_kvartir_pod_klyuch_7693375409</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>+79651765043</t>
+          <t>+79836607434</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazan/avtomobili/land_rover_range_rover_evoque_2.0_at_2019_68_000_km_4351816874</t>
+          <t>https://www.avito.ru/egorevsk/predlozheniya_uslug/remont_i_otdelka_kvartir_i_domov_4539583720</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>+79385410364</t>
+          <t>+79587144554</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/elektrostal/avtomobili/land_rover_range_rover_velar_3.0_at_2018_116_000_km_7765611457</t>
+          <t>https://www.avito.ru/kotelniki/predlozheniya_uslug/remont_kvartir_7464311768</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>+79675591678</t>
+          <t>+79647011374</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/domodedovo/avtomobili/hyundai_solaris_1.6_at_2021_215_000_km_7529627381</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_7464751776</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>+79587025624</t>
+          <t>+79647011374</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/ford_focus_1.6_amt_2016_61_500_km_7465258407</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_7464621030</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>+79675285919</t>
+          <t>+79647011374</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/porsche_cayenne_3.0_at_2012_172_000_km_7625048576</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7724718011</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>+79666679247</t>
+          <t>+79120963650</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orel/avtomobili/bmw_4_seriya_gran_coupe_2.0_at_2014_98_000_km_7821120156</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7442180826</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>+79675485300</t>
+          <t>+79584634910</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lipetsk/avtomobili/volkswagen_jetta_1.6_mt_2013_148_000_km_7821166980</t>
+          <t>https://www.avito.ru/noginsk/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7724872946</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>+79238295776</t>
+          <t>+79120963650</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kostroma/avtomobili/nissan_qashqai_1.6_mt_2012_172_000_km_7686902981</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_troitsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_v_novostroykah_3858401274</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>+79092569159</t>
+          <t>+79057374835</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/volvo_xc40_2.0_at_2020_84_000_km_4140262710</t>
+          <t>https://www.avito.ru/barviha/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7724895820</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>+79587099952</t>
+          <t>+79120963650</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/chery_tiggo_7_pro_1.5_cvt_2021_47_000_km_7772680136</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_rabota_2666504266</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>+79587928152</t>
+          <t>+79660429300</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/schelkovo/avtomobili/volkswagen_touareg_3.0_at_2011_242_000_km_7667750523</t>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7724582563</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>+79854997027</t>
+          <t>+79120963650</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/kia_optima_2.0_at_2017_122_160_km_4574087826</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7724014148</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>+79927069934</t>
+          <t>+79120963650</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/mercedes-benz_c-klass_1.8_at_2008_191_000_km_7784982464</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartirkottedzhey_1202408187</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>+79011469891</t>
+          <t>+79316664389</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/klintsy/avtomobili/kia_sportage_2.0_mt_2013_210_000_km_4709168554</t>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7723995457</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>+79065051191</t>
+          <t>+79120963650</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lyubertsy/avtomobili/hyundai_solaris_1.6_at_2021_85_000_km_7392635921</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_v_moskve._bez_posrednikov_7786040292</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>+79682113385</t>
+          <t>+79587007221</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/changan_uni-s_1.5_amt_2024_19_500_km_7739950810</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelka_kvartir_7798283048</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>+79587590947</t>
+          <t>+79666676804</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/bmw_5_seriya_2.0_at_2020_158_000_km_7755718642</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_3971307499</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>+79365710529</t>
+          <t>+79584658658</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/dolgoprudnyy/avtomobili/nissan_qashqai_2.0_cvt_2020_130_000_km_7785658931</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_7786508222</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>+79854995694</t>
+          <t>+79584679971</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/vaz_lada_vesta_1.6_mt_2018_81_985_km_7727664273</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_7749505771</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>+79587367033</t>
+          <t>+79584808294</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/lexus_rx_2.0_at_2019_98_000_km_7729936430</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7581865282</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>+79099615052</t>
+          <t>+79664440892</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/land_rover_range_rover_sport_3.0_at_2013_240_000_km_7744657706</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch._kapitalnyy_remont_7809268016</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>+79842351366</t>
+          <t>+79324446857</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/avtomobili/haval_jolion_1.5_amt_2022_182_323_km_7670050447</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_oplata_po_faktu_7809664088</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>+79055358842</t>
+          <t>+79324446857</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/volkswagen_polo_1.4_mt_2016_79_000_km_7738609898</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_garantiya_7809722577</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>+79660454230</t>
+          <t>+79324446857</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_rozhdestveno/avtomobili/ssangyong_actyon_2.0_at_2013_146_000_km_7720659666</t>
+          <t>https://www.avito.ru/orehovo-zuevo/predlozheniya_uslug/remont_sanuzla_i_kvartir_pod_klyuch_2301787369</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>+79856773547</t>
+          <t>+79584804457</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/volkswagen_caravelle_2.0_mt_2013_349_000_km_7690939044</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_4603919719</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>+79065639640</t>
+          <t>+79032047101</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/vaz_lada_vesta_cross_1.6_cvt_2020_168_694_km_7795632969</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7789427461</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>+79019396848</t>
+          <t>+79300644474</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/bmw_5_seriya_2.0_at_2017_163_000_km_7738014275</t>
+          <t>https://www.avito.ru/sergiev_posad/predlozheniya_uslug/remont_kvartir_i_domov_7768723567</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>+79646341295</t>
+          <t>+79587952719</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kursk/avtomobili/bmw_5_seriya_2.0_at_2018_165_000_km_3496598152</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_v_novostroyke_7729684116</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>+79325142731</t>
+          <t>+79675560042</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/kia_sorento_2.4_at_2017_130_000_km_7806970202</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_ivanteevka/predlozheniya_uslug/remont_i_otdelka_kvartir_7787372526</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>+79587496920</t>
+          <t>+79057640562</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/rybinsk/avtomobili/kia_optima_2.4_at_2012_252_000_km_7319999840</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_7768892947</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>+79605413803</t>
+          <t>+79654348177</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/mazda_cx-5_2.0_at_2012_87_100_km_7697874484</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_remont_kommercheskih_pomescheniy_7807460675</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>+79365664325</t>
+          <t>+79587102784</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/hyundai_ix35_2.0_at_2015_102_000_km_7750136672</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_4646634852</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>+79960111836</t>
+          <t>+79345559397</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/mazda_6_2.5_at_2014_127_000_km_7622350400</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_garantiya_7737357729</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>+79587148093</t>
+          <t>+79673468654</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/toyota_yaris_1.0_cvt_2020_129_000_km_7852977197</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_troitsk/predlozheniya_uslug/ekonom_remont_kvartir_chastnyy_master_7258580535</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>+79647152736</t>
+          <t>+79587120718</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazan/avtomobili/hyundai_grand_starex_2.5_at_2018_171_300_km_7765855724</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/malyar_pokleyka_oboev_remont_kvartir_7461536763</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>+79330216816</t>
+          <t>+79587942502</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lipetsk/avtomobili/renault_duster_2.0_mt_2012_117_200_km_7729780508</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir._otdelka_pod_klyuch._lyubye_obemy_2417270864</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>+79881914935</t>
+          <t>+79584638091</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/kia_cerato_2.0_at_2019_83_500_km_7726944167</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7831561468</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>+79385423973</t>
+          <t>+79584861593</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/kia_rio_1.6_at_2020_398_900_km_7785554816</t>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7831549067</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>+79645171967</t>
+          <t>+79584861593</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/kia_rio_1.6_at_2018_118_000_km_7584728793</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7831652785</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>+79065491580</t>
+          <t>+79584861593</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kaluga/avtomobili/mercedes-benz_e-klass_2.0_at_2013_192_019_km_7624285299</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7831059450</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>+79394097221</t>
+          <t>+79584861593</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/serpuhov/avtomobili/toyota_land_cruiser_4.5_at_2011_376_000_km_7379855001</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7831882259</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>+79662228094</t>
+          <t>+79584861593</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/lexus_gx_4.7_at_2004_313_011_km_7750390858</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7776324942</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>+79365659738</t>
+          <t>+79660449873</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/cherepovets/avtomobili/honda_cr-v_2.0_at_2007_250_000_km_7772308083</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelka_kvartir_7759460991</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>+79927063704</t>
+          <t>+79802575414</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/balashiha/avtomobili/ford_mondeo_2.0_at_2015_215_000_km_7619630493</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_1665366382</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>+79584885394</t>
+          <t>+79664445187</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/dzerzhinsk/avtomobili/subaru_xv_2.0_cvt_2017_128_000_km_7719301040</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_chehov/predlozheniya_uslug/remont_kvartir_i_kottedzhey_v_chehove_i_chehovskom_ra_7371265505</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>+79933003253</t>
+          <t>+79096366620</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/pereleshinskiy/avtomobili/vaz_lada_vesta_cross_1.8_mt_2020_127_000_km_7719173334</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_brigada_slavyan_7513055479</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>+79660465988</t>
+          <t>+79587140599</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vidnoe/avtomobili/mercedes-benz_v-klass_2.1_at_2020_208_000_km_7772496514</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_brigada_slavyan_7513931381</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>+79584854937</t>
+          <t>+79587140599</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bronnitsy/avtomobili/renault_duster_2.0_mt_2019_177_480_km_7777180697</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7692287527</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>+79587170953</t>
+          <t>+79836607068</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/ford_focus_1.6_amt_2012_62_044_km_7632335904</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_4536684279</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>+79365657234</t>
+          <t>+79856774789</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/subaru_forester_2.0_cvt_2018_57_236_km_7765404101</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch._kapitalnyy_remont_7686200831</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>+79587484795</t>
+          <t>+79587561729</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/suzuki_sx4_1.6_cvt_2014_154_000_km_7809186940</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch._dizaynerskiy_remont_kvart_7686620815</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>+79365655432</t>
+          <t>+79587561729</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/smolensk/avtomobili/mercedes-benz_e-klass_2.0_at_2017_112_000_km_7701819746</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch._kapitalnyy_remont_7686507463</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>+79611350884</t>
+          <t>+79587561729</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/renault_duster_2.0_mt_2017_77_000_km_7655383241</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch._kapitalnyy_remont_7731330414</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>+79365654161</t>
+          <t>+79770978582</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/bmw_x6_m_4.4_at_2016_147_500_km_7709560988</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch._dizaynerskiy_remont_kvart_7731212871</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>+79587599561</t>
+          <t>+79770978582</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhegorodskaya_oblast_pavlovo/avtomobili/volkswagen_polo_1.6_mt_2018_65_000_km_7709634512</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch._dizaynerskiy_remont_kvart_7731619461</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>+79587496140</t>
+          <t>+79770978582</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/bmw_x6_3.0_at_2023_51_000_km_7647040849</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_pod_klyuch._dizaynerskiy_remont_kvart_7731804717</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>+79584841138</t>
+          <t>+79770978582</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/audi_a5_1.8_cvt_2013_192_000_km_7666197442</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_4101799687</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>+79584728747</t>
+          <t>+79584646846</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ramenskoe/avtomobili/jeep_grand_cherokee_4.7_at_2006_234_000_km_7536987024</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_7720088359</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>+79636729883</t>
+          <t>+79032841856</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/luhovitsy/avtomobili/kia_sorento_2.4_at_2015_182_000_km_7618710888</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/stroitelnaya_brigada_remont_kvartir_7732613320</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>+79664441940</t>
+          <t>+79388133868</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orel/avtomobili/bmw_6_seriya_gt_2.0_at_2019_102_400_km_4269486214</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_2451106387</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>+79675484081</t>
+          <t>+79587142742</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/volvo_xc70_2.4_at_2010_220_090_km_7720099132</t>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_i_otdelka_sanuzla_pod_klyuch_7758476740</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>+79584849057</t>
+          <t>+79230668379</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lms/avtomobili/volkswagen_polo_1.6_mt_2018_85_000_km_7738637563</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_rabota_2727825736</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>+79067875562</t>
+          <t>+79067302328</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/land_rover_range_rover_evoque_2.2_at_2015_88_890_km_7707608554</t>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_kvartir_pod_klyuch_plitochnye_raboty_7576653973</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>+79060135370</t>
+          <t>+79324445308</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/cherepovets/avtomobili/hyundai_creta_1.6_mt_2018_61_000_km_7630629565</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_i_domov_s_garantiey_7769491535</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>+79927060412</t>
+          <t>+79673468654</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orehovo-zuevo/avtomobili/audi_a6_3.0_amt_2018_113_000_km_7260911339</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_ot_melkogo_do_slozhnogo_857639543</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>+79587532216</t>
+          <t>+79660440435</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/beloozyorskij/avtomobili/mitsubishi_outlander_2.4_mt_2008_149_000_km_7768169120</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_dubna/predlozheniya_uslug/remont_kvartir_i_domov_1443241680</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>+79662221261</t>
+          <t>+79587213955</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/toyota_camry_3.5_at_2007_23_000_km_4191218249</t>
+          <t>https://www.avito.ru/andreevka/predlozheniya_uslug/remont_kvartir_kottedzhey_taunhausov_pod_klyuch_2095451649</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>+79587335124</t>
+          <t>+79654344813</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/bmw_3_seriya_3.0_at_2019_63_000_km_7776329436</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_moskovskiy/predlozheniya_uslug/remont_kvartir_kapitalnyy_remont_otdelka_7477722869</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>+79365658317</t>
+          <t>+79666679725</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/smolensk/avtomobili/honda_civic_1.8_at_2011_159_378_km_7789837333</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_kapitalnyy_remont_otdelka_7477471995</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>+79809716288</t>
+          <t>+79666679725</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/novoivanovskoe/avtomobili/hyundai_palisade_2.2_at_2025_25_km_7771716133</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_kapitalnyy_remont_otdelka_7477513442</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>+79584731072</t>
+          <t>+79666679725</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/ford_transit_2.2_mt_2011_334_000_km_7688651906</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_oplata_po_faktu_7730494794</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>+79587103778</t>
+          <t>+79894383380</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/roslavl/avtomobili/mercedes-benz_e-klass_3.0_at_2009_330_000_km_7720209152</t>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_kvartir_7807216721</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>+79385417498</t>
+          <t>+79682113268</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/stupino/avtomobili/nissan_x-trail_2.0_cvt_2010_208_746_km_7690621269</t>
+          <t>https://www.avito.ru/fryazino/predlozheniya_uslug/remont_i_otdelka_kvartir_7759335499</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>+79584841614</t>
+          <t>+79012544554</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/uzlovaya/avtomobili/hyundai_elantra_1.6_at_2019_214_000_km_7779098670</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_7795228076</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>+79325123154</t>
+          <t>+79386665875</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/ford_ecosport_1.6_mt_2018_86_423_km_7779428385</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/demontazh_kvartir_pod_klyuch_demontazhnye_raboty_2237599319</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>+79587279917</t>
+          <t>+79587560052</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kaluga/avtomobili/mercedes-benz_c-klass_1.6_at_2018_127_000_km_7716806174</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch._kapitalnyy_remont_7795670451</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>+79586165197</t>
+          <t>+79386665875</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/mazda_6_2.0_at_2012_212_000_km_4403539461</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_i_domov_7720947493</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>+79331103626</t>
+          <t>+79344777032</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lipetsk/avtomobili/kia_sportage_2.0_at_2019_155_000_km_7830588374</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7778126277</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>+79842397309</t>
+          <t>+79587179877</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/mitsubishi_outlander_2.0_cvt_2012_265_000_km_7707523992</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_i_zagorodnyh_domov_pod_klyuch_3665446259</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>+79365663798</t>
+          <t>+79587953905</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/pestovo/avtomobili/volkswagen_amarok_2.0_mt_2012_161_000_km_7688312592</t>
+          <t>https://www.avito.ru/vysokovsk/predlozheniya_uslug/remont_i_otdelka_kvartir_remont_pod_klyuch_shtukatu_7722780633</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>+79365781634</t>
+          <t>+79365659800</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kaluga/avtomobili/skoda_rapid_1.6_at_2021_64_000_km_7787232845</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_i_otdelka_pod_klyuch_moskva_i_oblast_7730439521</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>+79611230907</t>
+          <t>+79682118014</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vitebsk/avtomobili/bmw_x5_3.0_at_2021_160_000_km_7807686063</t>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_kvartir_pod_klyuch._chastnaya_brigada_7813564593</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>+79587919160</t>
+          <t>+79584613247</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/skoda_kodiaq_2.0_amt_2019_106_770_km_7665772424</t>
+          <t>https://www.avito.ru/moskva_zelenograd/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_bez_posrednikov_4582307423</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>+79324449811</t>
+          <t>+79584642551</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/land_rover_range_rover_evoque_2.2_at_2013_92_000_km_7738522101</t>
+          <t>https://www.avito.ru/egorevsk/predlozheniya_uslug/remont_i_otdelka_dachi_4833762071</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>+79606005102</t>
+          <t>+79066108917</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/geely_atlas_2.4_at_2020_58_473_km_7763696985</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_4834234096</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>+79230693195</t>
+          <t>+79066108917</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/bmw_5_seriya_2.0_at_2018_88_000_km_7707699112</t>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_7617528781</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>+79365710880</t>
+          <t>+79066108917</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/kia_cerato_1.6_at_2012_83_000_km_7532236692</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/chestnyy_remont_kvartir_pod_klyuch._otdelka_kvartir_7830709629</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>+79067207411</t>
+          <t>+79584736845</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lipetsk/avtomobili/volkswagen_passat_cc_1.8_amt_2012_198_000_km_7686462315</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/chestnyy_remont_kvartir_pod_klyuch._otdelka_kvartir_7830556000</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>+79836609156</t>
+          <t>+79584736845</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/rostov/avtomobili/kia_rio_x_1.6_at_2021_55_000_km_7717289895</t>
+          <t>https://www.avito.ru/voskresensk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7617750333</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>+79624658558</t>
+          <t>+79664442206</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orel/avtomobili/peugeot_5008_1.5_at_2020_122_000_km_7772551046</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch._chastnyy_master_7410736793</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>+79675484175</t>
+          <t>+79587138978</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kommunarka/avtomobili/mercedes-benz_g-klass_3.2_at_2000_380_000_km_7708984591</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/obuchenie_remontu_kvartir_pod_klyuch_7807897004</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>+79678168243</t>
+          <t>+79668582711</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/suzdal/avtomobili/kia_sportage_2.0_at_2012_145_000_km_7853022811</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_i_kottedzhey_pod_klyuch_7669988779</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>+79365659264</t>
+          <t>+79587521981</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/kia_rio_1.4_mt_2016_29_000_km_7724806332</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_-_chastnik_s_rukami_brigada_7628046717</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>+79385423670</t>
+          <t>+79587946897</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/rzhev/avtomobili/kia_ceed_1.6_mt_2013_157_000_km_7765794203</t>
+          <t>https://www.avito.ru/pavlovskiy_posad/predlozheniya_uslug/remont_kvartir_i_domov_2815576022</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>+79847289331</t>
+          <t>+79806999704</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/reutov/avtomobili/bmw_5_seriya_2.5_at_2010_176_000_km_7809823952</t>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7667366089</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>+79316669677</t>
+          <t>+79324448177</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bryansk/avtomobili/bmw_x6_3.0_at_2009_325_000_km_7786084920</t>
+          <t>https://www.avito.ru/kommunarka/predlozheniya_uslug/remont_kvartir_ot_chastnoy_brigady_4194570511</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>+79325134361</t>
+          <t>+79881925197</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/gaz_gazel_next_2.8_mt_2018_650_000_km_7405713266</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_7719228904</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>+79060141256</t>
+          <t>+79678159464</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kotelniki/avtomobili/kia_cerato_1.6_at_2015_200_000_km_7732584665</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/vskrytie_remont_zamkov_ustanovka_lichinki_zamka_7759578333</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>+79584870954</t>
+          <t>+79587210543</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/hyundai_h-1_2.4_at_2012_385_000_km_7785665138</t>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_sanuzly_3616985298</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>+79587277595</t>
+          <t>+79584759144</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vidnoe/avtomobili/mazda_cx-5_2.0_at_2020_105_000_km_7729293654</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch.kosmeticheskiy_remont_1475253480</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>+79651766997</t>
+          <t>+79806997826</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kaluga/avtomobili/volkswagen_tiguan_2.0_amt_2018_198_500_km_7604965814</t>
+          <t>https://www.avito.ru/naro-fominsk/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_novostroyke_7729613239</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>+79807106144</t>
+          <t>+79675560042</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/balashiha/avtomobili/vaz_lada_vesta_1.6_mt_2018_65_000_km_7772119210</t>
+          <t>https://www.avito.ru/lobnya/predlozheniya_uslug/kompleksnyy_remont_kvartir_i_domov_pod_klyuch_7729278212</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>+79675583315</t>
+          <t>+79675560042</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/dolgoprudnyy/avtomobili/haval_m6_1.5_amt_2023_33_500_km_7778102777</t>
+          <t>https://www.avito.ru/reutov/predlozheniya_uslug/remont_kvartir_pod_klyuch._chastnaya_brigada_7765719359</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>+79386664010</t>
+          <t>+79587903315</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/gorohovets/avtomobili/hyundai_solaris_1.4_at_2013_61_136_km_7760858650</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_bez_posrednikov_7625837861</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>+79331102501</t>
+          <t>+79019391442</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/naro-fominsk/avtomobili/bmw_5_seriya_4.4_at_2005_178_500_km_7789637116</t>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/otdelka_kvartir._remont_kvartir_i_domov_pod_klyuch_7809199655</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>+79651283652</t>
+          <t>+79944416287</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/hyundai_solaris_1.6_at_2019_165_258_km_7544692848</t>
+          <t>https://www.avito.ru/bronnitsy/predlozheniya_uslug/remont_kvartiry._otdelka_kvartir._remont_pod_klyuch_7809685444</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>+79836605958</t>
+          <t>+79944416287</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bryansk/avtomobili/peugeot_301_1.6_at_2013_18_860_km_7766807586</t>
+          <t>https://www.avito.ru/selyatino/predlozheniya_uslug/otdelka_kvartir._remont_kvartir_i_domov_pod_klyuch_7809475133</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>+79325132994</t>
+          <t>+79944416287</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/peugeot_308_1.5_at_2021_120_000_km_7695085246</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch._chastnaya_brigada_7765127795</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>+79325114200</t>
+          <t>+79386664228</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/semiluki/avtomobili/bmw_x5_3.0_at_2003_358_000_km_7604569894</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7831386444</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>+79623300484</t>
+          <t>+79584861593</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/gorki-10/avtomobili/hyundai_creta_1.6_at_2017_149_120_km_7594774405</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_vannoy_remont_tualeta_pod_klyuch_7795861543</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>+79584732540</t>
+          <t>+79587953842</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/bmw_x5_4.4_at_2011_267_000_km_7738318986</t>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/dizayn_proekt_kvartiry_doma_interera_7786789691</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>+79587218108</t>
+          <t>+79584886655</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/hyundai_grandeur_3.0_at_2013_135_354_km_7720867265</t>
+          <t>https://www.avito.ru/zaraysk/predlozheniya_uslug/remont_kvartir_851770913</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>+79675253343</t>
+          <t>+79587144456</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/toyota_land_cruiser_prado_2.7_at_2004_205_761_km_7463531785</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_3960775530</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>+79587497924</t>
+          <t>+79660422843</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/smolensk/avtomobili/mercedes-benz_glk-klass_3.5_at_2008_149_000_km_7795063340</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_troitsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_4454056702</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>+79611349352</t>
+          <t>+79666679754</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/murom/avtomobili/ford_focus_1.6_mt_2015_65_000_km_7765199826</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_pod_klyuch_komfort_biznes_klassa_7732380621</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>+79365658358</t>
+          <t>+79587426918</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/volokolamsk/avtomobili/renault_grand_scenic_1.5_amt_2017_153_000_km_7695420209</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_pod_klyuch_komfort_biznes_klassa_7732884731</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>+79584649094</t>
+          <t>+79587426918</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kostroma/avtomobili/jac_j7_1.5_mt_2022_78_000_km_7853528628</t>
+          <t>https://www.avito.ru/lobnya/predlozheniya_uslug/remont_kvartir_pod_klyuch_7310662098</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>+79585997404</t>
+          <t>+79587423114</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/velikiy_novgorod/avtomobili/kia_sportage_2.0_at_2017_165_000_km_7554679585</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_ivanteevka/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7771816597</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>+79365781920</t>
+          <t>+79365660179</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/volkswagen_tiguan_2.0_amt_2018_142_700_km_7795226701</t>
+          <t>https://www.avito.ru/krasnoarmeysk/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7771542920</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>+79315221089</t>
+          <t>+79365660179</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/vaz_lada_vesta_1.6_cvt_2021_37_147_km_7795173259</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_7486916708</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>+79584726753</t>
+          <t>+79675581630</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/plavsk/avtomobili/toyota_corolla_fielder_1.5_cvt_2018_111_000_km_7772141751</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_7506413906</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>+79325124297</t>
+          <t>+79675594937</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/razvilka/avtomobili/kia_sorento_2.4_at_2011_149_600_km_7682093779</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/demontazh_4406215615</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>+79587589482</t>
+          <t>+79324447157</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/audi_a5_2.0_amt_2010_199_266_km_7771084006</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_elektriki_vodosnabzheniya_kvartir_pod_klyuch_7776694789</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>+79055758601</t>
+          <t>+79057083709</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vologda/avtomobili/skoda_rapid_1.6_mt_2018_88_700_km_7251422281</t>
+          <t>https://www.avito.ru/protvino/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_2314249339</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>+79927060890</t>
+          <t>+79386668299</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/bmw_x5_3.0_at_2009_254_000_km_7673616950</t>
+          <t>https://www.avito.ru/serpuhov/predlozheniya_uslug/remont_kvartir_domov_serpuhov_protvino_2250124374</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>+79091604673</t>
+          <t>+79386668299</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/ford_transit_2.2_mt_2017_381_500_km_7813258538</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_chastnaya_brigada_7809057660</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>+79065790256</t>
+          <t>+79322054633</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lebedyan/avtomobili/uaz_patriot_2.7_mt_2017_64_000_km_7799016836</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_povyshennoy_garantiey_7256656430</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>+79842397058</t>
+          <t>+79660422843</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/mytischi/avtomobili/bmw_x1_2.0_at_2019_181_000_km_7603320860</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/dizayner_interera_dizayn_proekt_kvartiry_7787583730</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>+79675561502</t>
+          <t>+79587429262</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/kia_optima_2.4_at_2017_130_000_km_7307259970</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_dubna/predlozheniya_uslug/remont_kvartiry_pod_klyuch_2284308352</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>+79927057003</t>
+          <t>+79666675423</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/rasskazovo/avtomobili/hyundai_creta_1.6_at_2020_57_000_km_7750656283</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/dizayner_interera_dizayn_proekt_pod_klyuch_7723394178</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>+79894384405</t>
+          <t>+79127108407</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/reutov/avtomobili/mercedes-benz_g-klass_3.0_at_2008_230_123_km_7625156169</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_v_moskve._chastnaya_brigada_7691970691</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>+79057691911</t>
+          <t>+79584820632</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/volvo_xc60_2.0_at_2019_165_000_km_7690908955</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch._chastnaya_brigada_7765901374</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>+79587529474</t>
+          <t>+79386664228</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/mini_cooper_1.6_at_2008_105_000_km_4207693888</t>
+          <t>https://www.avito.ru/kokoshkino/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7758751820</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>+79315220684</t>
+          <t>+79365681682</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bryansk/avtomobili/mazda_6_2.5_at_2013_256_000_km_7662840646</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/dizayner_interera_dizayn_proekt_kvartiry_7795734043</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>+79092421337</t>
+          <t>+79388082518</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/zavoronezhskoe/avtomobili/opel_insignia_2.0_at_2014_158_000_km_7821282235</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_4568632851</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>+79584784499</t>
+          <t>+79660427806</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/honda_cr-v_1.5_cvt_2021_44_000_km_7718045705</t>
+          <t>https://www.avito.ru/kokoshkino/predlozheniya_uslug/remont_kvartir_pod_klyuch_remont_domov_7640131795</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>+79587361273</t>
+          <t>+79660427806</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/smolensk/avtomobili/audi_a6_2.0_cvt_2013_165_000_km_7426147646</t>
+          <t>https://www.avito.ru/razvilka/predlozheniya_uslug/remont_kvartir_remont_domov_pod_klyuch_dizayn_7640915365</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>+79809718338</t>
+          <t>+79660427806</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kolomna/avtomobili/land_rover_range_rover_sport_3.0_at_2013_344_000_km_7830819988</t>
+          <t>https://www.avito.ru/glebovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_remont_domov_7640616056</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>+79675582336</t>
+          <t>+79660427806</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tambov/avtomobili/honda_cr-v_2.4_at_2008_240_000_km_7721420712</t>
+          <t>https://www.avito.ru/zarechye/predlozheniya_uslug/remont_kvartir_pod_klyuch_4568675269</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>+79678168570</t>
+          <t>+79660427806</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/audi_s8_4.0_at_2017_33_587_km_7813900699</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_remont_domov_7639980932</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>+79802581565</t>
+          <t>+79660427806</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/podolsk/avtomobili/kia_rio_1.6_at_2016_124_000_km_7712491343</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7721173545</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>+79330216327</t>
+          <t>+79067306875</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/odintsovo/avtomobili/audi_a6_3.0_amt_2011_222_085_km_7714967065</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/dizayner_interera_dizayn_proekt_pod_klyuch_7771742095</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>+79663867754</t>
+          <t>+79856776855</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/plavsk/avtomobili/kia_ceed_1.6_mt_2017_102_000_km_7730125053</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/dizayner_interera_dizayn_proekt_7771079133</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>+79325124128</t>
+          <t>+79856776855</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/makarev/avtomobili/toyota_rav4_2.0_at_2008_310_000_km_7759948036</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7720686944</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>+79607410286</t>
+          <t>+79365658208</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/jaguar_xf_3.0_at_2014_211_500_km_7674734180</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_3_goda_7795607998</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>+79587480880</t>
+          <t>+79386665875</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_rozhdestveno/avtomobili/toyota_camry_2.5_at_2019_167_000_km_7775755434</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/master_na_chassantehnikelektrikremont_kvartir_2784113751</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>+79675580242</t>
+          <t>+79587423486</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/cherepovets/avtomobili/hyundai_creta_1.6_mt_2017_110_000_km_7758510431</t>
+          <t>https://www.avito.ru/klin/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_chastnaya_brigada_7692814355</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>+79927060392</t>
+          <t>+79836606967</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vitebsk/avtomobili/mercedes-benz_glb-klass_2.0_amt_2020_99_000_km_7722114737</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7776330455</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>+79584735353</t>
+          <t>+79654350946</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazan/avtomobili/toyota_land_cruiser_prado_2.8_at_2017_198_305_km_7610323528</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_3854042166</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>+79303289412</t>
+          <t>+79386665199</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/pushkino/avtomobili/lexus_gs_3.0_at_2007_230_000_km_7785086238</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7765463370</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>+79584613788</t>
+          <t>+79584875707</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kovrov/avtomobili/bmw_x5_3.0_at_2012_210_000_km_7776951234</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_vannoy_komnaty_pod_klyuch_s_garantiey_7465976913</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>+79365655663</t>
+          <t>+79588803332</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/volkswagen_polo_1.6_at_2019_41_000_km_7602136321</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_vannoy_i_tualeta_pod_klyuch_4027163423</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>+79365746797</t>
+          <t>+79325115090</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/kia_sorento_prime_2.2_at_2018_112_375_km_7768137698</t>
+          <t>https://www.avito.ru/elektrostal/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_7853708990</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>+79065260881</t>
+          <t>+79660447325</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/kia_optima_2.4_at_2017_94_000_km_7749128834</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_moskovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch._chastnaya_brigada_7660586879</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>+79612431156</t>
+          <t>+79587533905</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lipetsk/avtomobili/hyundai_elantra_1.6_at_2012_177_000_km_7696163181</t>
+          <t>https://www.avito.ru/protvino/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_protvino_3643161729</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>+79238297410</t>
+          <t>+79584641501</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/subaru_forester_2.0_at_2012_264_290_km_7786712304</t>
+          <t>https://www.avito.ru/puschino/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_puschino_3643250876</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>+79847291078</t>
+          <t>+79584641501</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/cherepovets/avtomobili/haval_m6_1.5_mt_2025_7745259896</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_proletarskiy/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_proletarskom_3643370484</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>+79114410763</t>
+          <t>+79584641501</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/hyundai_solaris_1.6_at_2017_40_000_km_7656718528</t>
+          <t>https://www.avito.ru/mosrentgen/predlozheniya_uslug/remont_kvartir_pod_klyuch._chastnaya_brigada_7590586913</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>+79854994894</t>
+          <t>+79587024444</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/volvo_xc40_2.0_at_2020_137_624_km_7795751428</t>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_4686335233</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>+79587932137</t>
+          <t>+79584611708</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/borovichi/avtomobili/chevrolet_captiva_2.4_mt_2014_241_000_km_7647543556</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/plitochnik_ukladka_kafelnoy_plitki_4169390297</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>+79365780405</t>
+          <t>+79679388669</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/lexus_rx_2.0_at_2018_115_000_km_7656299404</t>
+          <t>https://www.avito.ru/krasnoarmeysk/predlozheniya_uslug/remont_kvartir_domov_i_sobstvennaya_brigada_7684438628</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>+79587162397</t>
+          <t>+79584861379</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/mytischi/avtomobili/chevrolet_equinox_1.5_at_2020_82_400_km_7808947278</t>
+          <t>https://www.avito.ru/dzerzhinskiy/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_dizaynerskiy_remont_7768456207</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>+79586167284</t>
+          <t>+79944413865</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/volkswagen_tiguan_1.4_amt_2014_177_000_km_7688208104</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_dizaynerskiy_remont_7768195546</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>+79682880062</t>
+          <t>+79944413865</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vidnoe/avtomobili/volkswagen_touareg_3.0_at_2010_175_000_km_7722484817</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_dizaynerskiy_remont_7767983307</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>+79666679803</t>
+          <t>+79944413865</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orel/avtomobili/renault_kaptur_1.6_cvt_2018_140_000_km_4000808620</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7616762823</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>+79675485893</t>
+          <t>+79651806313</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/hyundai_santa_fe_2.4_at_2011_184_745_km_7706890132</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7552038603</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>+79587275400</t>
+          <t>+79651806313</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/mitsubishi_outlander_2.0_cvt_2016_118_000_km_7583255329</t>
+          <t>https://www.avito.ru/solnechnogorsk/predlozheniya_uslug/remont_i_otdelka_kvartir_chastichno_i_pod_klyuch_3869064584</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>+79365707696</t>
+          <t>+79587909623</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/velikiy_novgorod/avtomobili/bmw_3_seriya_2.0_at_2012_200_000_km_7602569166</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_kapitalnyy_remont_7298282052</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>+79658143463</t>
+          <t>+79057509428</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/bmw_x1_1.5_amt_2019_142_320_km_7739307728</t>
+          <t>https://www.avito.ru/kommunarka/predlozheniya_uslug/remont_kvartir_pod_klyuch_kapitalnyy_remont_7426884810</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>+79587362966</t>
+          <t>+79057509428</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/volkswagen_jetta_1.6_mt_2017_78_000_km_7692026979</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7403882698</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>+79587141397</t>
+          <t>+79365573256</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/mercedes-benz_s-klass_3.4_at_1995_89_100_km_7853264381</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7339709801</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>+79011468435</t>
+          <t>+79365573256</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/sergiev_posad/avtomobili/tesla_model_y_at_2020_55_000_km_7766557847</t>
+          <t>https://www.avito.ru/shatura/predlozheniya_uslug/master_na_chas._remont_kvartir_pod_klyuch_2047836570</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>+79587028333</t>
+          <t>+79660436844</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orsha/avtomobili/volkswagen_tiguan_2.0_amt_2017_93_000_km_7688086533</t>
+          <t>https://www.avito.ru/lobnya/predlozheniya_uslug/remont_i_otdelka_kvartir_2225436677</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>+79587123312</t>
+          <t>+79611679793</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lobnya/avtomobili/haval_f7_1.5_amt_2022_78_900_km_7738110797</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7807147911</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>+79345558942</t>
+          <t>+79365657829</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/zvenigorod/avtomobili/ford_transit_2.2_mt_2018_175_000_km_7809332474</t>
+          <t>https://www.avito.ru/fryazino/predlozheniya_uslug/remont_kvartir_dizayn_proekt_fryazino_7619090665</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>+79587108756</t>
+          <t>+79647077169</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/hyundai_solaris_1.6_mt_2017_63_147_km_7726210762</t>
+          <t>https://www.avito.ru/yahroma/predlozheniya_uslug/remont_kvartir_pod_klyuch_7710078903</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>+79092771291</t>
+          <t>+79584828129</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/balashiha/avtomobili/porsche_panamera_turbo_4.8_amt_2010_185_555_km_7723308920</t>
+          <t>https://www.avito.ru/losino-petrovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_7710090103</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>+79587141130</t>
+          <t>+79584828129</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/kia_sportage_2.0_at_2012_146_000_km_7853738816</t>
+          <t>https://www.avito.ru/stupino/predlozheniya_uslug/remont_kvartir_pod_klyuch_7710536269</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>+79365654629</t>
+          <t>+79584828129</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/staryy_oskol/avtomobili/mitsubishi_outlander_2.0_cvt_2019_115_400_km_7649892145</t>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_kvartir_pod_klyuch_7710314218</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>+79365839556</t>
+          <t>+79584828129</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazanskaya_oblast_shilovo/avtomobili/vaz_lada_vesta_1.6_mt_2020_66_500_km_7615557293</t>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/remont_kvartir_pod_klyuch_poetapnaya_oplata_2711424664</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>+79330215499</t>
+          <t>+79587151619</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/mazda_6_2.0_at_2019_120_500_km_7776729737</t>
+          <t>https://www.avito.ru/klin/predlozheniya_uslug/remont_kvartir_evroremont_pod_klyuch_3575942149</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>+79365711485</t>
+          <t>+79587909095</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/volvo_xc60_2.4_at_2015_178_500_km_7536263570</t>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_7710810527</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>+79647178442</t>
+          <t>+79584828129</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/odintsovo/avtomobili/toyota_verso_1.6_mt_2014_244_147_km_7643643889</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_ivanteevka/predlozheniya_uslug/remont_kvartir_pod_klyuch._stroitelstvo._otdelka_7285672153</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>+79584859850</t>
+          <t>+79586160339</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/toyota_camry_2.0_at_2018_156_300_km_7666497099</t>
+          <t>https://www.avito.ru/beloozyorskij/predlozheniya_uslug/remont_kvartir_pod_klyuch_7710112739</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>+79092690948</t>
+          <t>+79584828129</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vologda/avtomobili/vaz_lada_largus_1.6_mt_2024_4683856248</t>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_7748367769</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>+79394090312</t>
+          <t>+79587099643</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/volkswagen_tiguan_2.0_at_2012_239_166_km_7799922687</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_pod_klyuch_3195964683</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>+79065561537</t>
+          <t>+79678161912</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/porsche_panamera_3.0_at_2015_199_300_km_7747486886</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7710877561</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>+79066508248</t>
+          <t>+79584828129</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/hyundai_ix35_2.0_at_2013_176_354_km_4369491109</t>
+          <t>https://www.avito.ru/krasnozavodsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7710274808</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>+79038247103</t>
+          <t>+79584828129</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/schekino/avtomobili/haval_m6_1.5_mt_2023_14_000_km_7610678537</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_troitsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7710250656</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>+79842372978</t>
+          <t>+79584828129</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazan/avtomobili/land_rover_range_rover_5.0_at_2010_209_000_km_7795410300</t>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_7853683987</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>+79303289370</t>
+          <t>+79345557812</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/bmw_x2_2.0_at_2019_96_000_km_7454766271</t>
+          <t>https://www.avito.ru/pavlovskiy_posad/predlozheniya_uslug/remont_kvartir_pod_klyuch_7807779087</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>+79587364193</t>
+          <t>+79365657829</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/volkswagen_touareg_3.0_at_2021_bityy_29_330_km_7694902320</t>
+          <t>https://www.avito.ru/noginsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7807614720</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>+79660423741</t>
+          <t>+79365657829</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/skoda_rapid_1.6_mt_2021_68_320_km_7807004293</t>
+          <t>https://www.avito.ru/egorevsk/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_2362819846</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>+79587938547</t>
+          <t>+79856774116</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/haval_jolion_1.5_mt_2025_7664818939</t>
+          <t>https://www.avito.ru/lobnya/predlozheniya_uslug/remont_i_otdelka_kvartir_remont_pod_klyuch_shtukatu_7722622962</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>+79587936306</t>
+          <t>+79365659800</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/hyundai_santa_fe_1.6_at_2021_69_800_km_7727520006</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_i_otdelka_kvartir_brigada_slavyan_7542918620</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>+79343419027</t>
+          <t>+79856776871</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/gryazovets/avtomobili/nissan_terrano_1.6_mt_2017_135_000_km_7465005944</t>
+          <t>https://www.avito.ru/taldom/predlozheniya_uslug/uslugi_elektrika_1908119761</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>+79052962473</t>
+          <t>+79584630968</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/hyundai_solaris_1.6_at_2021_345_000_km_7809682000</t>
+          <t>https://www.avito.ru/lytkarino/predlozheniya_uslug/remont_kvartir_pod_klyuch_7701705171</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>+79587156890</t>
+          <t>+79587520337</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/nissan_qashqai_2.0_cvt_2019_72_756_km_7662068481</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7667252709</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>+79365705432</t>
+          <t>+79045613522</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/velikiy_novgorod/avtomobili/exeed_txl_2.0_amt_2023_53_000_km_7638918171</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/kachestvennyy_remont_kvartir_i_domov._de_house_2479216549</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>+79365781681</t>
+          <t>+79584820657</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kondrovo/avtomobili/geely_monjaro_2.0_at_2023_55_000_km_7732233169</t>
+          <t>https://www.avito.ru/noginsk/predlozheniya_uslug/remont_kvartir_2665439478</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>+79394095594</t>
+          <t>+79365658208</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/podolsk/avtomobili/toyota_camry_2.5_at_2014_292_000_km_7400634752</t>
+          <t>https://www.avito.ru/elektrostal/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_7368264953</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>+79960113951</t>
+          <t>+79365658208</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/balashiha/avtomobili/skoda_yeti_1.4_amt_2013_105_000_km_7785146119</t>
+          <t>https://www.avito.ru/shatura/predlozheniya_uslug/remont_kvartir_pod_klyuch_2665182121</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>+79584612809</t>
+          <t>+79365658208</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/dzerzhinsk/avtomobili/hyundai_elantra_1.6_mt_2013_87_050_km_7753109198</t>
+          <t>https://www.avito.ru/ostrovtsy/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7708978272</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>+79587493791</t>
+          <t>+79586158919</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/mercedes-benz_v-klass_2.0_at_2022_36_000_km_7720167468</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_7645227083</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>+79647827225</t>
+          <t>+79651785866</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/velikiy_novgorod/avtomobili/nissan_qashqai_2.0_cvt_2016_67_500_km_7229397649</t>
+          <t>https://www.avito.ru/novopetrovskoe/predlozheniya_uslug/remont_kvartir_pod_klyuchotdelka_kvartirremont_2110625682</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>+79365782028</t>
+          <t>+79587004408</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_chehov/avtomobili/bmw_3_seriya_2.0_at_2012_143_500_km_7813398257</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_chastichno_i_pod_klyuch_2063660164</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>+79666678443</t>
+          <t>+79123605934</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/mitsubishi_outlander_2.4_cvt_2011_205_000_km_7739458339</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_i_otdelka_kvartir_3310494029</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>+79365654362</t>
+          <t>+79584305257</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/mercedes-benz_gla-klass_1.3_amt_2020_79_000_km_7747845322</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch_vse_vidy_remonta_3049763977</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>+79933004212</t>
+          <t>+79675565904</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/cherepovets/avtomobili/hyundai_tucson_2.0_at_2019_91_762_km_7679837263</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_kapitalnyy_remont_7426503834</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>+79814277911</t>
+          <t>+79057509428</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/audi_q3_2.0_amt_2012_244_556_km_7748338319</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_kapitalnyy_remont_7426955247</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>+79586156271</t>
+          <t>+79057509428</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/volkswagen_tiguan_2.0_amt_2018_188_213_km_7715778745</t>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_kvartir_pod_klyuch_kapitalnyy_remont_7426452171</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>+79625178147</t>
+          <t>+79057509428</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/novomoskovsk/avtomobili/volkswagen_tiguan_1.4_amt_2019_112_000_km_7557402154</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch._bez_avansov_7789048266</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>+79315220511</t>
+          <t>+79587538501</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/lynk_co_900_2.0_at_2025_50_km_7729872316</t>
+          <t>https://www.avito.ru/krasnoarmeysk/predlozheniya_uslug/remont_kvartir_pod_klyuch._bez_avansov_7789572662</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>+79806995386</t>
+          <t>+79587538501</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kolomna/avtomobili/haval_jolion_1.5_amt_2022_51_320_km_7613010781</t>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_kvartir._oplata_po_faktu_7725067717</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>+79587588895</t>
+          <t>+79344429333</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/serpuhov/avtomobili/mercedes-benz_g-klass_3.0_at_2010_198_000_km_7771756442</t>
+          <t>https://www.avito.ru/dedovsk/predlozheniya_uslug/remont_kvartir_pod_klyuch._bez_avansov_ot_profi_7725817747</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>+79091558137</t>
+          <t>+79344429333</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/murom/avtomobili/mercedes-benz_glc-klass_amg_3.0_at_2016_190_000_km_7691748162</t>
+          <t>https://www.avito.ru/kubinka/predlozheniya_uslug/remont_kvartir_pod_klyuch._bez_avansov_ot_profi_7757917314</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>+79365655278</t>
+          <t>+79344429333</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/balashiha/avtomobili/toyota_land_cruiser_4.7_at_2001_259_000_km_7769251132</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_2673854228</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>+79584259556</t>
+          <t>+79587949689</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/odintsovo/avtomobili/hyundai_santa_fe_2.0_at_2013_143_000_km_7830398314</t>
+          <t>https://www.avito.ru/volokolamsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_plitochnyy_rabota_pod_klyuch_7684777265</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>+79584679248</t>
+          <t>+79386665298</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/kia_sportage_2.0_mt_2009_181_000_km_7831473657</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_3415182319</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>+79365654107</t>
+          <t>+79586196410</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/bmw_3_seriya_2.0_at_2021_63_000_km_7623916141</t>
+          <t>https://www.avito.ru/reutov/predlozheniya_uslug/remont_kvartir_i_domov_4414825341</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>+79365707927</t>
+          <t>+79584645335</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/kia_ceed_1.6_mt_2015_162_000_km_7755013355</t>
+          <t>https://www.avito.ru/sergiev_posad/predlozheniya_uslug/remont_kvartir_pod_klyuch_7789334328</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>+79394086243</t>
+          <t>+79584672214</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/toyota_hilux_2.5_mt_2006_218_000_km_7520814476</t>
+          <t>https://www.avito.ru/aprelevka/predlozheniya_uslug/remont_kvartir_bez_posrednikov_2636453381</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>+79847290315</t>
+          <t>+79881925448</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/mitsubishi_outlander_2.4_cvt_2010_131_077_km_7656361876</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_pod_klyuch_7714558414</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>+79325123631</t>
+          <t>+79587120304</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/ford_focus_1.6_amt_2019_78_660_km_7734410367</t>
+          <t>https://www.avito.ru/ruza/predlozheniya_uslug/remont_otdelka_domov_i_kvartir_7769544963</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>+79675497854</t>
+          <t>+79610137845</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/hyundai_solaris_1.6_at_2021_127_000_km_7767216726</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/montazhremont_sistem_ventilyatsii_4497232182</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>+79605377809</t>
+          <t>+79651792566</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/obninsk/avtomobili/chery_tiggo_8_pro_1.6_amt_2022_38_000_km_7658519323</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/osteklenie_uteplenie_otdelka_balkonov_i_lodzhiy_7720114717</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>+79881925231</t>
+          <t>+79057473947</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orehovo-zuevo/avtomobili/bmw_7_seriya_3.0_at_2016_182_770_km_7747027648</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7733839658</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>+79587005095</t>
+          <t>+79586164099</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/murom/avtomobili/hyundai_solaris_1.6_at_2019_48_878_km_7754942452</t>
+          <t>https://www.avito.ru/lobnya/predlozheniya_uslug/remont_kvartir_pod_klyuch_7772160538</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>+79365654626</t>
+          <t>+79647159004</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/smolenskaya_oblast_rudnya/avtomobili/chevrolet_equinox_1.5_at_2019_51_000_km_7709859900</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_4692315939</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>+79600147068</t>
+          <t>+79960112374</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/obninsk/avtomobili/nissan_x-trail_2.0_cvt_2016_131_500_km_7806990791</t>
+          <t>https://www.avito.ru/noginsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_3527124191</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>+79394097570</t>
+          <t>+79587098373</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lipetsk/avtomobili/porsche_cayenne_s_4.8_at_2011_209_100_km_7726235661</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_zheleznodorozhnyy_2770762780</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>+79881914248</t>
+          <t>+79660412721</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/bmw_7_seriya_6.0_at_2003_119_000_km_7776732844</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_chastnaya_brigada_7710608314</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>+79057720315</t>
+          <t>+79096646024</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/tenet_t4_1.5_mt_2025_7645331774</t>
+          <t>https://www.avito.ru/kotelniki/predlozheniya_uslug/remont_kvartir_pod_klyuch_2315389124</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>+79587265487</t>
+          <t>+79662220968</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kurskaya_oblast_zheleznogorsk/avtomobili/toyota_camry_2.5_at_2013_174_000_km_7743346566</t>
+          <t>https://www.avito.ru/kotelniki/predlozheniya_uslug/remont_kvartir_domov_pod_klyuch_487998108</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>+79325142861</t>
+          <t>+79382227714</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/chevrolet_tahoe_5.3_at_2001_413_000_km_7758635356</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_s_garantiey_po_dogovoru_bez_posrednikov_7668616707</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>+79035740352</t>
+          <t>+79587024805</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lipetsk/avtomobili/toyota_camry_2.0_cvt_2025_5_km_7538062899</t>
+          <t>https://www.avito.ru/kolomna/predlozheniya_uslug/remont_i_otdelka_kvartir_domov_pod_klyuch_7579712446</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>+79881912755</t>
+          <t>+79584677002</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orehovo-zuevo/avtomobili/hyundai_santa_fe_2.4_at_2011_187_000_km_7733002303</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_voskresenskoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_grantiey_7733695138</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>+79856770460</t>
+          <t>+79587264786</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/volvo_xc60_2.0_at_2017_76_870_km_7767964899</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7687924941</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>+79325123838</t>
+          <t>+79912009412</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bolshoe_murashkino/avtomobili/solaris_hs_1.6_at_2024_22_930_km_7786161122</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_7245246623</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>+79230568940</t>
+          <t>+79584735492</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kaluga/avtomobili/honda_cr-v_2.0_at_2012_137_254_km_7740485122</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_chehov/predlozheniya_uslug/kompleksnyy_remont_kvartir_i_domov_pod_klyuch_7729591674</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>+79623706577</t>
+          <t>+79675560042</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/dzerzhinsk/avtomobili/volkswagen_polo_1.4_amt_2020_162_510_km_7759362928</t>
+          <t>https://www.avito.ru/klin/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_novostroyke_7729500112</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>+79587494770</t>
+          <t>+79675560042</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/putevka/avtomobili/fiat_ducato_2.3_mt_2017_370_000_km_7853162794</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_vannoy_komnaty_pod_klyuch_2470503887</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>+79325133710</t>
+          <t>+79230693719</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/cherepovets/avtomobili/volkswagen_polo_1.6_mt_2018_113_000_km_7769196196</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_domov_pod_klyuch_7656457542</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>+79927059250</t>
+          <t>+79584631504</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazan/avtomobili/audi_a3_1.4_amt_2014_248_000_km_7799131319</t>
+          <t>https://www.avito.ru/egorevsk/predlozheniya_uslug/remont._otdelka_2106704504</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>+79303289386</t>
+          <t>+79587582834</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/geely_monjaro_2.0_at_2025_15_km_7492097679</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/demontazh_kvartiry_demontazhnye_raboty_7713612171</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>+79587922558</t>
+          <t>+79587533758</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/honda_stepwgn_spada_2.0_cvt_2011_103_452_km_7750517471</t>
+          <t>https://www.avito.ru/reutov/predlozheniya_uslug/remont_i_otdelka_kvartir_7759173203</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>+79587369392</t>
+          <t>+79587177617</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/ford_expedition_3.5_at_2025_15_km_7758412531</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_vannoy_komnaty_pod_klyuch_2790445203</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>+79854991778</t>
+          <t>+79230693719</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/volkswagen_passat_1.8_mt_2011_188_000_km_7777195684</t>
+          <t>https://www.avito.ru/hotkovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_7732176882</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>+79587913027</t>
+          <t>+79675560239</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/velikie_luki/avtomobili/hyundai_ix35_2.0_at_2012_157_235_km_7729780199</t>
+          <t>https://www.avito.ru/zaprudnya/predlozheniya_uslug/remont_i_otdelka_pod_klyuch_3431833811</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>+79694018886</t>
+          <t>+79587155995</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/uaz_patriot_2.7_at_2020_50_700_km_7769338487</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7689182962</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>+79675497706</t>
+          <t>+79586042826</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/nissan_juke_1.6_cvt_2012_103_000_km_7767783612</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_3856581475</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>+79942651165</t>
+          <t>+79662225956</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/cherepovets/avtomobili/volkswagen_polo_1.6_at_2017_78_000_km_7764992812</t>
+          <t>https://www.avito.ru/elektrostal/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_chastnaya_brigada_7700884743</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>+79394091391</t>
+          <t>+79927041647</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/velikiy_novgorod/avtomobili/kia_optima_2.4_at_2018_127_000_km_7660309181</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_4476285413</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>+79365781651</t>
+          <t>+79587424536</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/renault_logan_stepway_1.6_at_2020_120_000_km_7724504399</t>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartiry_pod_klyuch_7723093516</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>+79011467269</t>
+          <t>+79584854717</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/murom/avtomobili/mitsubishi_pajero_3.0_at_2015_195_000_km_7418104782</t>
+          <t>https://www.avito.ru/peresvet/predlozheniya_uslug/remont_kvartir_pod_klyuch_7732951666</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>+79365656078</t>
+          <t>+79675560239</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vologda/avtomobili/lexus_lx_5.7_at_2008_256_500_km_7555449928</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/dizayner_interera._dizayn_proekt_pod_klyuch_7730150565</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>+79927059168</t>
+          <t>+79584663826</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/hyundai_staria_2.2_at_2021_86_261_km_7591607079</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnoznamensk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7732497829</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>+79927052137</t>
+          <t>+79675560239</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/reutov/avtomobili/mazda_cx-5_2.0_at_2025_17_km_7536904933</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch._kapitalnyy_remont_doma_7748417223</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>+79395568945</t>
+          <t>+79612494192</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/ford_focus_1.6_mt_2019_69_070_km_7767851586</t>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7739564163</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>+79066358027</t>
+          <t>+79584866478</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/skoda_fabia_1.6_at_2014_44_000_km_7684172735</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_i_otdelka_kvartir_2810066470</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>+79664442075</t>
+          <t>+79587470419</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/dmitrov/avtomobili/renault_duster_1.6_mt_2019_58_000_km_7463565347</t>
+          <t>https://www.avito.ru/kolomna/predlozheniya_uslug/remont_kvartir_pod_klyuch_7732265204</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>+79675582058</t>
+          <t>+79675560239</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/subaru_impreza_wrx_2.5_mt_2007_213_000_km_7758763394</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/demontazh_kvartir_domov._demontazhnye_raboty_7709659003</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>+79587941564</t>
+          <t>+79586040342</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/volvo_xc90_3.2_at_2009_362_000_km_7677708620</t>
+          <t>https://www.avito.ru/volokolamsk/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_4874220888</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>+79365658013</t>
+          <t>+79099301875</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lipetsk/avtomobili/ssangyong_kyron_2.0_at_2013_76_150_km_7830596638</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_2161205804</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>+79842397184</t>
+          <t>+79637619253</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/mercedes-benz_glk-klass_2.1_at_2013_161_121_km_7807669527</t>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_2705090975</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>+79587497746</t>
+          <t>+79675566986</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/infiniti_fx37_3.7_at_2012_282_000_km_7261238224</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/osteklenie_balkona_otdelka_remont_pod_klyuch_7768944551</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>+79325122184</t>
+          <t>+79651675153</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kurskaya_oblast_zheleznogorsk/avtomobili/kia_sportage_2.0_mt_2013_169_487_km_7758395980</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remontnye_i_otdelochnye_rabotychastnaya_brigada_7709422072</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>+79678183722</t>
+          <t>+79586040342</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bryansk/avtomobili/vaz_lada_vesta_cross_1.8_mt_2021_65_000_km_7799176522</t>
+          <t>https://www.avito.ru/losino-petrovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645964504</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>+79045622272</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/ford_explorer_3.5_at_2014_247_000_km_7730293785</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_novostroek_pod_klyuch_3614993459</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>+79645997838</t>
+          <t>+79587001513</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/istra/avtomobili/bmw_x6_3.0_at_2013_117_000_km_7758617190</t>
+          <t>https://www.avito.ru/voskresensk/predlozheniya_uslug/kompleksnyy_remont_kvartir_i_domov_pod_klyuch_7729524836</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>+79584844750</t>
+          <t>+79675560042</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/nissan_qashqai_2.0_cvt_2016_98_000_km_3784086600</t>
+          <t>https://www.avito.ru/sergiev_posad/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_novostroyke_7729379095</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>+79587925687</t>
+          <t>+79675560042</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/porsche_panamera_turbo_4.0_amt_2018_93_779_km_7781005630</t>
+          <t>https://www.avito.ru/noginsk/predlozheniya_uslug/kompleksnyy_remont_kvartir_i_domov_pod_klyuch_7729872666</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>+79587483171</t>
+          <t>+79675560042</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bryansk/avtomobili/haval_jolion_1.5_amt_2024_27_000_km_7710797003</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch._chastnaya_brigada_3029450455</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>+79045623667</t>
+          <t>+79584732836</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/kia_k5_2.5_at_2020_177_000_km_7766058366</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7709042773</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>+79385423183</t>
+          <t>+79586040342</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/himki/avtomobili/mercedes-benz_gle-klass_coupe_3.0_at_2019_159_000_km_7777310686</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7727535316</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>+79587212826</t>
+          <t>+79315558935</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/elets/avtomobili/bmw_3_seriya_2.0_at_2013_191_450_km_4493238346</t>
+          <t>https://www.avito.ru/elektrostal/predlozheniya_uslug/remont_lyubyh_pomescheniy_pod_klyuch_4659768737</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>+79881912099</t>
+          <t>+79386665286</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orel/avtomobili/volkswagen_jetta_1.5_at_2022_53_500_km_7765474683</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_s_garantiey_7727612961</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>+79675484761</t>
+          <t>+79584674421</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/razvilka/avtomobili/mercedes-benz_m-klass_3.5_at_2011_168_315_km_7768692929</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_4452811654</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>+79099043061</t>
+          <t>+79584814128</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/renault_duster_2.0_mt_2017_130_000_km_7727237037</t>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_kvartir_vannaya_komnata_pod_klyuch_plitochnik_2353358694</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>+79365847128</t>
+          <t>+79096672382</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/hyundai_ix35_2.0_at_2015_116_000_km_7667422919</t>
+          <t>https://www.avito.ru/naro-fominsk/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_bez_posrednikov_7669361040</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>+79330205124</t>
+          <t>+79394096582</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/elektrostal/avtomobili/nissan_juke_1.6_cvt_2014_113_500_km_7813204156</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7760602683</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>+79836609075</t>
+          <t>+79654339054</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kursk/avtomobili/bmw_5_seriya_2.0_at_2015_155_000_km_7704331931</t>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_garantiya_7315918814</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>+79606309897</t>
+          <t>+79654337642</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_chehov/avtomobili/kia_optima_2.4_at_2017_123_000_km_7777167153</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_garantiya_7315414421</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>+79842370610</t>
+          <t>+79654337642</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/podolsk/avtomobili/toyota_camry_2.5_at_2018_193_000_km_7772826691</t>
+          <t>https://www.avito.ru/sverdlovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_master_na_chas_2359201672</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>+79587903401</t>
+          <t>+79584722676</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ermolino/avtomobili/cadillac_escalade_6.2_at_2016_190_000_km_7787310442</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_3978385083</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>+79394095811</t>
+          <t>+79055768603</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/volvo_xc60_2.0_at_2018_230_000_km_7700560416</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/kapitalnyy_remont_kvartir_4506948978</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>+79365654109</t>
+          <t>+79682115901</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/selyatino/avtomobili/volkswagen_golf_r_2.0_amt_2012_199_500_km_7704421481</t>
+          <t>https://www.avito.ru/shatura/predlozheniya_uslug/remont_i_otdelka_kvartir_remont_pod_klyuch_shtukatu_7722424335</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>+79388805511</t>
+          <t>+79365659800</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/mitsubishi_asx_1.8_cvt_2013_130_239_km_7611233966</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_i_otdelka_kvartir_remont_pod_klyuch_shtukatu_7722600786</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>+79842358045</t>
+          <t>+79365659800</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/mercedes-benz_e-klass_1.8_at_2012_134_600_km_7769807850</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch._top._chastnaya_brigada_7439325358</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>+79662226997</t>
+          <t>+79944415925</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orehovo-zuevo/avtomobili/volkswagen_touareg_3.6_at_2012_220_000_km_3882093186</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7799171094</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>+79587570003</t>
+          <t>+79066990316</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/mitsubishi_outlander_2.0_cvt_2013_102_000_km_7707939007</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_brigada_7768054886</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>+79660441349</t>
+          <t>+79586161684</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/himki/avtomobili/bmw_x3_2.0_at_2024_49_000_km_7564672439</t>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_chastnaya_brigada_7768548582</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>+79836603188</t>
+          <t>+79586161684</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/toyota_rav4_2.0_cvt_2014_190_000_km_7729205957</t>
+          <t>https://www.avito.ru/moskva_zelenograd/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7767966824</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>+79365656583</t>
+          <t>+79586161684</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazan/avtomobili/opel_mokka_1.8_at_2013_132_000_km_7649171380</t>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_chastnaya_brigada_7768518344</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>+79330212696</t>
+          <t>+79586161684</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/podolsk/avtomobili/volkswagen_polo_1.6_at_2020_134_000_km_7769089171</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7768117342</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>+79584805092</t>
+          <t>+79586161684</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vologda/avtomobili/kia_k5_2.5_at_2021_bityy_69_054_km_7278051786</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_7768598746</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>+79394092024</t>
+          <t>+79586161684</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/bmw_x6_3.0_at_2011_151_000_km_7336609029</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7768646630</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>+79678167584</t>
+          <t>+79586161684</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/bmw_x5_4.8_at_2008_277_287_km_4599373155</t>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645476385</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>+79675573440</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kaluga/avtomobili/vaz_lada_largus_cross_1.6_mt_2018_89_500_km_7635325302</t>
+          <t>https://www.avito.ru/dedovsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645611400</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>+79881925122</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/citroen_c5_aircross_1.5_at_2021_73_719_km_7755039393</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_7768600647</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>+79587592705</t>
+          <t>+79586161684</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/himki/avtomobili/toyota_camry_2.5_at_2021_68_000_km_7371982333</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7768798725</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>+79096756846</t>
+          <t>+79586161684</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/domodedovo/avtomobili/bmw_4_seriya_2.0_at_2013_260_000_km_7576101612</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_domov._remont_vannoy_pod_klyuch_2689782458</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>+79646398365</t>
+          <t>+79809717933</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/ssangyong_rexton_2.2_at_2020_77_650_km_7348122847</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7768328588</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>+79331106409</t>
+          <t>+79586161684</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/jetour_dashing_1.5_amt_2024_6_124_km_7740123123</t>
+          <t>https://www.avito.ru/tomilino/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_3799818947</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>+79586160958</t>
+          <t>+79382229501</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orsha/avtomobili/bmw_x6_3.0_at_2020_127_000_km_7778605598</t>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_vannyh_komnat_pod_klyuch_7359246674</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>+79584725957</t>
+          <t>+79856773022</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/dzerzhinsk/avtomobili/nissan_murano_3.5_cvt_2014_188_000_km_7785537453</t>
+          <t>https://www.avito.ru/orehovo-zuevo/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_novostroyke_7729319825</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>+79063685356</t>
+          <t>+79675560042</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orel/avtomobili/jeep_commander_3.0_at_2007_290_000_km_7753586377</t>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/kompleksnyy_remont_kvartir_i_domov_pod_klyuch_7729160111</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>+79675485330</t>
+          <t>+79675560042</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/hyundai_grand_starex_2.5_at_2009_143_700_km_7638714771</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_v_balashihe_7772350037</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>+79842347089</t>
+          <t>+79325126127</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/mazda_cx-5_2.0_at_2012_131_060_km_7798737888</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7567077271</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>+79587488091</t>
+          <t>+79675252922</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kotovsk/avtomobili/hyundai_tucson_2.0_at_2024_30_000_km_7795351739</t>
+          <t>https://www.avito.ru/dedovsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7727560782</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>+79894386179</t>
+          <t>+79315558935</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orel/avtomobili/mercedes-benz_glc-klass_coupe_2.0_at_2018_82_026_km_7700140715</t>
+          <t>https://www.avito.ru/reutov/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7727460290</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>+79675485074</t>
+          <t>+79315558935</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/nissan_qashqai_1.6_cvt_2013_164_000_km_4398810483</t>
+          <t>https://www.avito.ru/kolomna/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7727639719</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>+79365710928</t>
+          <t>+79315558935</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_chehov/avtomobili/bmw_3_seriya_1.6_at_2013_188_500_km_7830862503</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7685558641</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>+79386662986</t>
+          <t>+79836609612</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/toyota_land_cruiser_4.2_mt_2007_322_000_km_7727296765</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_1674706136</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>+79856722762</t>
+          <t>+79636398160</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/skoda_kodiaq_2.0_amt_2022_69_080_km_7754382324</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_moskovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_3029506487</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>+79326667982</t>
+          <t>+79584732836</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/volkswagen_polo_1.6_at_2018_166_000_km_7807793135</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7795665859</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>+79011466376</t>
+          <t>+79875752352</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/toyota_rav4_2.5_at_2020_67_600_km_7738897218</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7795664796</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>+79587901194</t>
+          <t>+79875752352</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/audi_rs5_4.2_amt_2013_165_500_km_7760319638</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/dizayner_dizayn_proekt_kvartiry_pod_klyuch_7754852062</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>+79847291603</t>
+          <t>+79584886655</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/reutov/avtomobili/audi_q7_3.0_at_2017_205_000_km_7712558634</t>
+          <t>https://www.avito.ru/zvenigorod/predlozheniya_uslug/remont_i_otdelka_kvartir_3958250646</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>+79960118179</t>
+          <t>+79651646939</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/balashiha/avtomobili/nissan_x-trail_2.0_cvt_2019_159_000_km_3998683785</t>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_kvartir_kapitalnyy_remont_otdelka_7477011225</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>+79584631107</t>
+          <t>+79666679725</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/mitsubishi_outlander_2.4_cvt_2010_194_855_km_7683405153</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_kapitalnyy_remont_otdelka_7477354359</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>+79842373196</t>
+          <t>+79666679725</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/reutov/avtomobili/volkswagen_polo_1.6_at_2016_150_000_km_7656030300</t>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_kvartir_kapitalnyy_remont_otdelka_7477841976</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>+79326977871</t>
+          <t>+79666679725</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orel/avtomobili/kia_ceed_1.6_mt_2016_115_100_km_7853912769</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_garantiya_4627996307</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>+79587365520</t>
+          <t>+79654337642</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/mercedes-benz_a-klass_1.6_amt_2017_165_000_km_7518354173</t>
+          <t>https://www.avito.ru/rogachevo/predlozheniya_uslug/remont_kvartir_pod_klyuch_7725884571</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>+79365709081</t>
+          <t>+79587944137</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/gubkin/avtomobili/kia_rio_x_1.4_at_2021_47_000_km_3779020409</t>
+          <t>https://www.avito.ru/fryazino/predlozheniya_uslug/remont_kvartir_domov_pod_klyuch_i_chastichno_3998240688</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>+79325100286</t>
+          <t>+79584620433</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kokoshkino/avtomobili/porsche_macan_2.0_amt_2019_96_000_km_7750187133</t>
+          <t>https://www.avito.ru/orehovo-zuevo/predlozheniya_uslug/remont_i_otdelka_kvartir_2873170521</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>+79345551425</t>
+          <t>+79675590959</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/borovichi/avtomobili/mitsubishi_pajero_sport_2.4_at_2018_27_380_km_7556925419</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7728029729</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>+79365782554</t>
+          <t>+79096781182</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/staryy_oskol/avtomobili/skoda_octavia_1.4_amt_2014_207_450_km_7739994009</t>
+          <t>https://www.avito.ru/remmash/predlozheniya_uslug/uslugi_remont_kvartir_pod_klyuch_7739882532</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>+79325101915</t>
+          <t>+79587138872</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bryansk/avtomobili/toyota_camry_2.4_at_2006_276_700_km_7799247298</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_troitsk/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_bez_posrednikov_4640474241</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>+79045622105</t>
+          <t>+79365580166</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/bmw_x6_3.0_at_2012_207_537_km_7769397307</t>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_2831280012</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>+79587496536</t>
+          <t>+79584729207</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orel/avtomobili/vaz_lada_vesta_1.6_mt_2021_97_100_km_7799676748</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/plitochnye_raboty._remont_kvartir_pod_klyuch_7769765083</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>+79675485194</t>
+          <t>+79854993021</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tambov/avtomobili/kia_ceed_1.6_at_2014_134_600_km_7740298386</t>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelka_kvartir_7748694160</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>+79678167173</t>
+          <t>+79612494192</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/lynk_co_900_2.0_at_2025_10_km_7687246758</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_moskovskiy/predlozheniya_uslug/remont_kvartirdomov_pod_klyuch_7754743231</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>+79324440778</t>
+          <t>+79019392584</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/infiniti_ex25_2.5_at_2012_94_258_km_7716816642</t>
+          <t>https://www.avito.ru/kommunarka/predlozheniya_uslug/remont_kvartirdomov_pod_klyuch_7754015541</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>+79365659135</t>
+          <t>+79019392584</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vyazma/avtomobili/mitsubishi_outlander_2.0_cvt_2012_160_000_km_7853077763</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch._rabotaem_po_dogovoru_3363323081</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>+79809719155</t>
+          <t>+79587128679</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/lipetsk/avtomobili/hyundai_elantra_1.5_cvt_2025_23_km_7624369133</t>
+          <t>https://www.avito.ru/kommunarka/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7705213144</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>+79365876750</t>
+          <t>+79238297426</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavskaya_oblast_petrovskoe/avtomobili/kia_sorento_prime_2.4_at_2019_120_740_km_7799748012</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_i_ne_tolko_2621320902</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>+79927052127</t>
+          <t>+79092339958</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/toyota_rav4_2.0_cvt_2015_218_000_km_7564764237</t>
+          <t>https://www.avito.ru/dedovsk/predlozheniya_uslug/remont_domov_kottedzhey_i_kvartir_pod_klyuch_7592788598</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>+79587539256</t>
+          <t>+79315559238</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/volkswagen_jetta_1.4_mt_2011_165_991_km_7710535491</t>
+          <t>https://www.avito.ru/shahovskaya/predlozheniya_uslug/remont_domov_kottedzhey_i_kvartir_pod_klyuch_7592636730</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>+79612638144</t>
+          <t>+79315559238</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ruza/avtomobili/toyota_noah_1.8_cvt_2015_430_000_km_7687783819</t>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_kvartir_i_chastnyh_domov_istra_7632480325</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>+79675580419</t>
+          <t>+79587154264</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/toyota_rav4_2.0_cvt_2016_106_000_km_7763422518</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_moskovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_kachestva_7729105636</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>+79587481085</t>
+          <t>+79675578177</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/toyota_land_cruiser_4.2_at_2006_532_007_km_7809138796</t>
+          <t>https://www.avito.ru/zvenigorod/predlozheniya_uslug/remont_kvartir_i_domov_zvenigorod_7632851572</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>+79894380851</t>
+          <t>+79587154264</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/land_rover_freelander_2.0_at_2013_185_000_km_7744760115</t>
+          <t>https://www.avito.ru/lotoshino/predlozheniya_uslug/remont_kvartir_pod_klyuch_7777889505</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>+79611191522</t>
+          <t>+79587621325</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vologda/avtomobili/skoda_rapid_1.6_at_2017_108_533_km_7785750838</t>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_domov_pod_klyuch_kachestvenno_i_bystro_4673092793</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>+79927061032</t>
+          <t>+79675574155</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/toyota_hilux_2.8_at_2017_98_000_km_7697124498</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/zamena_lichinki_zamkov_vrezka_ustanovka_zamkov_7606471189</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>+79612637021</t>
+          <t>+79587574357</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kursk/avtomobili/renault_kaptur_1.6_cvt_2016_127_140_km_7684279616</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey._brigada_7625585164</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>+79611964172</t>
+          <t>+79587572555</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/smolensk/avtomobili/mercedes-benz_c-klass_1.8_at_2011_200_000_km_7729335298</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey._brigada_7625136903</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>+79611349352</t>
+          <t>+79587572555</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/volkswagen_jetta_1.6_mt_2013_145_200_km_7726982572</t>
+          <t>https://www.avito.ru/moskva_zelenograd/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey._brigada_7625351284</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>+79365655185</t>
+          <t>+79587572555</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vidnoe/avtomobili/bmw_x5_3.0_at_2019_143_961_km_7303367306</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey._brigada_7625132467</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>+79316664920</t>
+          <t>+79587572555</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/sergiev_posad/avtomobili/bmw_x6_3.0_at_2011_86_832_km_7605108987</t>
+          <t>https://www.avito.ru/noginsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_4762992401</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>+79847290189</t>
+          <t>+79856774606</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/kia_sportage_2.0_mt_2017_93_000_km_7614113685</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_troitsk/predlozheniya_uslug/remont_kvartir_domov_i_ofisov_pod_klyuch_7319723016</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>+79092818669</t>
+          <t>+79587215567</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezhskaya_oblast_otradnoe/avtomobili/audi_a6_3.0_at_2020_72_750_km_7726328212</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov._brigada_7625101945</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>+79587362366</t>
+          <t>+79587572555</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/sergiev_posad/avtomobili/kia_ceed_1.6_at_2019_104_000_km_7593300840</t>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7785549687</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>+79584888347</t>
+          <t>+79584673258</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tambov/avtomobili/toyota_rav4_2.5_at_2021_163_000_km_7757276551</t>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_7727058259</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>+79678168187</t>
+          <t>+79587941394</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/kia_sorento_2.0_at_2013_144_500_km_7668276419</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7727866965</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>+79365655772</t>
+          <t>+79587941394</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/balashiha/avtomobili/jaguar_f-pace_2.0_at_2021_67_000_km_7602848085</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_pod_klyuch_4244543997</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>+79660453979</t>
+          <t>+79584735655</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/bmw_1_seriya_1.6_at_2012_164_511_km_7799516282</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_pod_klyuch_7581940954</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>+79587368007</t>
+          <t>+79584888420</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazan/avtomobili/kia_ceed_1.6_at_2015_205_000_km_7739798692</t>
+          <t>https://www.avito.ru/losino-petrovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_7580982140</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>+79623978184</t>
+          <t>+79584888420</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_dubna/avtomobili/bmw_7_seriya_3.0_at_2009_223_000_km_7718179336</t>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_kvartir_dach_pod_klyuch_plitochnoe_rabota_7536062079</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>+79385422163</t>
+          <t>+79836609170</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kireevsk/avtomobili/hyundai_grand_starex_2.5_at_2011_159_000_km_7666149482</t>
+          <t>https://www.avito.ru/znamya_oktyabrya/predlozheniya_uslug/remont_kvartir_2071457695</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>+79894380084</t>
+          <t>+79019391241</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bryansk/avtomobili/infiniti_qx70_3.0_at_2013_174_500_km_7771303170</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pokleyka_oboev_shpaklevka_4708917250</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>+79092426831</t>
+          <t>+79587108919</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/mercedes-benz_gle-klass_2.0_at_2019_100_000_km_3985137053</t>
+          <t>https://www.avito.ru/kubinka/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7675796389</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>+79061335439</t>
+          <t>+79675571914</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kireevsk/avtomobili/lexus_rx_3.5_at_2007_51_000_km_7588477316</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_pod_klyuch_1794633323</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>+79325123955</t>
+          <t>+79055354192</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/gaz_gazel_next_2.8_mt_2021_118_772_km_4112359385</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645738394</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>+79066355268</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/istra/avtomobili/honda_odyssey_north_america_3.5_at_2012_148_000_km_7740369252</t>
+          <t>https://www.avito.ru/zhukovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645450437</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>+79398999601</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/kia_sportage_2.0_mt_2008_135_400_km_7709026190</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645934150</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>+79365654637</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/avtomobili/ford_focus_1.6_at_2011_47_000_km_4510793789</t>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645863697</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>+79856772181</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/gryazi/avtomobili/hyundai_tucson_2.0_at_2017_66_079_km_7635988780</t>
+          <t>https://www.avito.ru/lytkarino/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645052136</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>+79238296328</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_moskovskiy/avtomobili/nissan_murano_3.5_cvt_2021_52_000_km_7680147937</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_ivanteevka/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645656848</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>+79654349093</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/reutov/avtomobili/chery_tiggo_3xe_at_2018_127_654_km_2521311064</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645430468</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>+79330197479</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/mercedes-benz_g-klass_amg_4.0_at_2019_69_000_km_7654060228</t>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645136030</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>+79660456755</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kursk/avtomobili/peugeot_boxer_2.2_mt_2014_470_000_km_7798331315</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645413771</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>+79325143051</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_chehov/avtomobili/kia_rio_1.6_at_2014_124_000_km_7744939677</t>
+          <t>https://www.avito.ru/reutov/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645527824</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>+79675578589</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/krasnoe-na-volge/avtomobili/renault_duster_2.0_mt_2016_77_904_km_7745491499</t>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645135425</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>+79334016300</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kaluga/avtomobili/opel_mokka_1.8_mt_2014_156_000_km_7697894211</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_chastnaya_brigada_7645025677</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>+79623741007</t>
+          <t>+79365761300</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kirzhach/avtomobili/renault_duster_2.0_at_2018_141_000_km_7747137745</t>
+          <t>https://www.avito.ru/zhukovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_dizayn-proekt_v_podarok_7458615311</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>+79365654924</t>
+          <t>+79584801768</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/nissan_qashqai_2.0_cvt_2014_123_600_km_7778164357</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/dizayner_interera_i_remont_pod_klyuch_7569721699</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>+79933004582</t>
+          <t>+79587533040</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/nissan_teana_2.5_cvt_2012_226_000_km_7653798086</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_s_garantiey_7593093981</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>+79365656907</t>
+          <t>+79587572555</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/nissan_qashqai_1.6_cvt_2014_156_200_km_7488647483</t>
+          <t>https://www.avito.ru/sergiev_posad/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7728128628</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>+79942650954</t>
+          <t>+79096781182</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kaluga/avtomobili/toyota_camry_3.5_at_2018_175_000_km_7721901257</t>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/remont_i_otdelka_pod_klyuch_2312016108</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>+79665664931</t>
+          <t>+79587155995</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kursk/avtomobili/hyundai_elantra_1.6_at_2014_195_000_km_7760000276</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/vskrytie_ustanovka_zamkov_remont_zamkov_7286815699</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>+79678184469</t>
+          <t>+79587574357</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/arzamas/avtomobili/haval_jolion_1.5_amt_2022_47_000_km_7738700504</t>
+          <t>https://www.avito.ru/sergiev_posad/predlozheniya_uslug/remont_kvartir_pod_klyuch_7697250492</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>+79065636318</t>
+          <t>+79960110422</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/kia_optima_2.0_at_2018_137_000_km_7708124421</t>
+          <t>https://www.avito.ru/bronnitsy/predlozheniya_uslug/otdelka_remont_domov_kvartir_pod_klyuch_7769392876</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>+79325124918</t>
+          <t>+79587518587</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kursk/avtomobili/omoda_c5_1.5_cvt_2023_52_850_km_7721904225</t>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_otdelka_domov_kvartir_pod_klyuch_i_chast_7768947075</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>+79611997605</t>
+          <t>+79587518587</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/maloyaroslavets/avtomobili/audi_a4_2.0_amt_2014_232_300_km_7701311569</t>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_pod_klyuch_1896383082</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>+79665665123</t>
+          <t>+79675579530</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/orel/avtomobili/volkswagen_tiguan_2.0_at_2013_129_300_km_7687806037</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_rassrochka_7738608954</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>+79675484457</t>
+          <t>+79944414799</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vologda/avtomobili/renault_sandero_stepway_1.6_mt_2019_99_555_km_7697939760</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/demontazhnye_raboty_v_kvartire_s_vyvozom_musora_7466891433</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>+79927063110</t>
+          <t>+79587172656</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tula/avtomobili/mazda_cx-5_2.0_at_2013_148_000_km_7753755719</t>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_kvartir_pod_klyuch_1922084751</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>+79325121479</t>
+          <t>+79584850921</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/balashiha/avtomobili/skoda_octavia_1.8_amt_2018_149_800_km_7402191907</t>
+          <t>https://www.avito.ru/elektrostal/predlozheniya_uslug/remont_kvartir_2316557381</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>+79067003667</t>
+          <t>+79651303872</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vorsma/avtomobili/kia_sorento_2.5_at_2022_87_900_km_7442078151</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/osteklenie_balkonov_i_lodzhiy._otdelka_i_uteplenie_4105356784</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>+79331101704</t>
+          <t>+79057473947</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/strelitsa/avtomobili/gaz_gazel_3302_2.7_mt_2021_157_000_km_7765140419</t>
+          <t>https://www.avito.ru/zvenigorod/predlozheniya_uslug/remont_kvartir_pod_klyuch_1774699386</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>+79038590823</t>
+          <t>+79651282535</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/aprelevka/avtomobili/gaz_gazel_next_2.7_mt_2018_215_000_km_4560610740</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_vannoy_komnaty_i_kvartir_pod_klyuch_1965374182</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>+79629072190</t>
+          <t>+79675566189</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ivanovo/avtomobili/toyota_camry_2.5_at_2017_169_000_km_7760343705</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnoznamensk/predlozheniya_uslug/remont_i_otdelka_kvartir_remont_pod_klyuch_shtukatu_7690803174</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>+79365708755</t>
+          <t>+79365659800</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/mercedes-benz_e-klass_2.0_at_2015_112_700_km_4905750369</t>
+          <t>https://www.avito.ru/egorevsk/predlozheniya_uslug/remont_i_otdelka_kvartir_remont_pod_klyuch_shtukatu_7690528668</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>+79060960406</t>
+          <t>+79365659800</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vladimir/avtomobili/kia_cerato_2.0_at_2018_194_000_km_7727059252</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartiry_pod_klyuch_7733608557</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>+79365657771</t>
+          <t>+79584875707</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/gaz_gazel_next_2.8_mt_2017_370_000_km_7584321997</t>
+          <t>https://www.avito.ru/sergiev_posad/predlozheniya_uslug/remont_kvartir_pod_klyuch_2092640107</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>+79587563031</t>
+          <t>+79584618117</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/volvo_s60_2.5_at_2008_200_000_km_7432245360</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_vannoy_dushevoy_sanuzlov_tualeta_pod_klyuch_2277601716</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>+79584852721</t>
+          <t>+79584881816</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/chevrolet_trailblazer_1.3_at_2021_61_000_km_7750058725</t>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7728701427</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>+79587924424</t>
+          <t>+79096781182</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/dodge_journey_2.4_at_2019_121_000_km_7708763278</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7728069199</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>+79836608481</t>
+          <t>+79096781182</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/murom/avtomobili/audi_a6_3.0_amt_2015_212_500_km_7710644871</t>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/master_na_chas._remont_kvartir_vyezd_3637325722</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>+79365657157</t>
+          <t>+79055752834</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/kia_cerato_1.6_at_2018_166_930_km_7630859977</t>
+          <t>https://www.avito.ru/golitsyno/predlozheniya_uslug/remont_i_otdelka_kvartir_remont_pod_klyuch_shtukatu_7690519406</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>+79660468513</t>
+          <t>+79365659800</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/rybinsk/avtomobili/mazda_6_2.0_at_2011_155_000_km_7613185795</t>
+          <t>https://www.avito.ru/reutov/predlozheniya_uslug/remont_kvartir_pod_klyuch_po_dizayn_proektu._reutov_7278830294</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>+79394086598</t>
+          <t>+79856775772</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/mitsubishi_outlander_2.4_cvt_2008_199_000_km_7754274355</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir._kapitalnyy_remont_s_garantiey_3897115380</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>+79587913827</t>
+          <t>+79587902776</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_chehov/avtomobili/gaz_gazel_next_2.8_mt_2016_470_000_km_7357671763</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_7799437668</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>+79587427923</t>
+          <t>+79587262791</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/reutov/avtomobili/cadillac_cts_2.0_at_2015_98_500_km_4633220664</t>
+          <t>https://www.avito.ru/serpuhov/predlozheniya_uslug/remont_kvartir_pod_klyuch._elektromontazh._po_zapisi_2213541684</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>+79813332636</t>
+          <t>+79587959875</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/cherepovets/avtomobili/hyundai_ix35_2.0_mt_2014_139_100_km_7821029457</t>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7265924402</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>+79927061471</t>
+          <t>+79584858323</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bor/avtomobili/mitsubishi_outlander_2.0_cvt_2020_87_000_km_7853735671</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_chehov/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_2346156666</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>+79587486054</t>
+          <t>+79386668299</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/vologda/avtomobili/mazda_cx-5_2.0_at_2019_51_500_km_7795871762</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_ekonom_do_premium-klassa._chastnik_4042339938</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>+79927061124</t>
+          <t>+79386668299</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/hyundai_tucson_2.0_at_2021_117_000_km_7853736108</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_4492989343</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>+79584630471</t>
+          <t>+79944419540</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/sergiev_posad/avtomobili/bmw_x5_4.8_at_2007_228_000_km_7776138487</t>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_muzh_s_zhenoy_2422976179</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>+79675570765</t>
+          <t>+79099951478</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/balashiha/avtomobili/volkswagen_polo_1.6_at_2019_142_000_km_7740145446</t>
+          <t>https://www.avito.ru/kotelniki/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_7664452969</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>+79587094850</t>
+          <t>+79238298050</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/kia_sorento_prime_2.2_at_2018_114_103_km_7370812469</t>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_7664539948</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>+79092812219</t>
+          <t>+79238298050</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/nizhniy_novgorod/avtomobili/kia_rio_x-line_1.6_at_2019_65_000_km_7526637940</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7664672512</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>+79587487737</t>
+          <t>+79238298050</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/himki/avtomobili/subaru_forester_2.5_at_2011_320_000_km_7785424419</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7265142949</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>+79587534733</t>
+          <t>+79881909044</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/serpuhov/avtomobili/skoda_karoq_1.4_at_2020_88_394_km_7755369206</t>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_pod_klyuch._chastnaya_brigada_7266011918</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>+79584883686</t>
+          <t>+79881909044</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskovskaya_oblast_dubna/avtomobili/kia_ceed_1.6_at_2015_255_000_km_7606204127</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/yurist_ekspertiza_remonta_kvartiry._spor_po_otdelke_7693127097</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>+79587133414</t>
+          <t>+79802598286</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/tver/avtomobili/audi_a4_2.0_at_2006_290_000_km_7785234610</t>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7754324313</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>+79847290302</t>
+          <t>+79034286067</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/genesis_gv80_2.5_at_2023_45_000_km_7776807025</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_otdelka_kapitalnyy_remont_7324601029</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>+79662227654</t>
+          <t>+79647004703</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/sergiev_posad/avtomobili/citroen_jumper_2.2_mt_2016_788_400_km_7772597049</t>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_otdelka_kapitalnyy_remont_7356139586</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>+79326669243</t>
+          <t>+79647004703</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/dmitrov/avtomobili/renault_arkana_1.6_cvt_2020_145_000_km_3832895846</t>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_otdelka_kapitalnyy_remont_7356390545</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>+79675575300</t>
+          <t>+79647004703</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/mercedes-benz_g-klass_5.5_at_2009_185_000_km_7606264179</t>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_kvartir_otdelka_kapitalnyy_remont_7452782283</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>+79326661521</t>
+          <t>+79647004703</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/moskva/avtomobili/bmw_3_seriya_2.0_at_2021_80_000_km_7558681749</t>
+          <t>https://www.avito.ru/sergiev_posad/predlozheniya_uslug/remont_kvartir_3188102431</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>+79316444626</t>
+          <t>+79663861508</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/toyota_rav4_2.0_cvt_2018_55_000_km_7710563871</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_i_otdelka_kvartir_7798062332</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>+79305047111</t>
+          <t>+79587521981</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bryansk/avtomobili/chery_arrizo_8_1.6_amt_2023_27_600_km_7809197441</t>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_i_otdelka_kvartir_4445481502</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>+79092426748</t>
+          <t>+79960115134</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/bryansk/avtomobili/gaz_gazel_next_2.8_mt_2017_450_000_km_7738748150</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_ivanteevka/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_7392100308</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>+79045622275</t>
+          <t>+79813331102</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kursk/avtomobili/toyota_camry_2.5_at_2012_212_000_km_7799039170</t>
+          <t>https://www.avito.ru/kommunarka/predlozheniya_uslug/remont_kvartir_i_domov_s_garantiey_chastnaya_brigad_7664072037</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>+79678182565</t>
+          <t>+79240357654</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/voronezh/avtomobili/honda_vezel_1.5_cvt_2016_48_199_km_7616754267</t>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/pokleyka_oboev_shpaklevka_pokraska_4278800202</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>+79587561894</t>
+          <t>+79019390051</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/ryazan/avtomobili/toyota_land_cruiser_prado_3.0_at_2009_260_000_km_7830532727</t>
+          <t>https://www.avito.ru/klin/predlozheniya_uslug/remont_i_otdelka_kvartir_remont_pod_klyuch_shtukatu_7690083936</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>+79678157729</t>
+          <t>+79365659800</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/yaroslavl/avtomobili/gaz_gazel_next_2.8_mt_2018_330_000_km_2456420038</t>
+          <t>https://www.avito.ru/kommunarka/predlozheniya_uslug/remont_kvartir_remont_vannoy_pod_klyuch_2309375611</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>+79675496881</t>
+          <t>+79584881816</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/smolensk/avtomobili/bmw_3_seriya_gt_2.0_at_2018_84_400_km_7787899852</t>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir._remont_vannoy_pod_klyuch_2245126630</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>+79365863132</t>
+          <t>+79584881816</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/dmitrov/avtomobili/hyundai_grand_starex_2.5_at_2009_272_303_km_7680725930</t>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_vannoy_dushevoy_sanuzla_kvartir_pod_klyuch_948462357</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>+79096252365</t>
+          <t>+79584881816</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kashira/avtomobili/hyundai_i30_1.6_at_2012_111_397_km_7795337103</t>
+          <t>https://www.avito.ru/luhovitsy/predlozheniya_uslug/otdelochnye_raboty_pod_klyuch_2512828544</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>+79587955293</t>
+          <t>+79623934627</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_i_otdelka_kvartir_7508135349</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>+79338892793</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_pod_klyuch_kvartirydomanedvizhimostirieltor_4448441008</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>+79051418825</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_predoplaty_7763795970</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>+79813288747</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kolomna/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_novostroyke_7697712984</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>+79675560042</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_3124408072</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>+79060554184</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_za_60_dney_7663079955</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>+79944415925</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/demontazh_3609400085</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>+79586191306</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_pod_klyuch_bez_avansa_dizayn-proekt_v_podar_7746190542</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>+79326938280</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_4367235594</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>+79317150479</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_novostroyke_7697580917</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>+79675560042</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_novostroyke_7697383085</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>+79675560042</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_4150085974</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>+79806997488</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/premium_remont_kvartir_i_domov_7709748731</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>+79315557291</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_4223158191</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>+79675568500</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/elektrostal/predlozheniya_uslug/remont_kvartir._vannaya_remont_pod_klyuch_1142111395</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>+79035631324</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/zaprudnya/predlozheniya_uslug/remont_kvartir_stroitelstvo_karkasnyh_domov_2608881227</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>+79584880628</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/zhukovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7737852927</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>+79586192121</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_pod_klyuch_bez_stressa_7700385407</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>+79587426918</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733530421</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch._kapitalnyy_remont_doma_7753419690</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>+79587572555</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_lesnoy/predlozheniya_uslug/remont_kvartir_remont_domov_novostroek_7736796426</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>+79660427806</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/roshal/predlozheniya_uslug/remont_kvartir_domov_novostroek_s_garantiey_7736349596</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>+79660427806</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_remont_domov_novostroek_7736077242</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>+79660427806</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mihnevo/predlozheniya_uslug/remont_kvartir_domov_novostroek_s_garantiey_7736201664</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>+79660427806</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/zarechye/predlozheniya_uslug/remont_kvartir_domov_novostroek_s_garantiey_7736735028</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>+79660427806</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remot_kvartir_otdelochnyh_rabot_2224022699</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>+79927040482</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kommunarka/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_garantiya_7315729061</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>+79654337642</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch_7407156083</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>+79675252922</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_ivanteevka/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733823344</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/tomilino/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733775404</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733703659</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733587704</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733898029</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733296191</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_novostroyke_7697015312</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>+79675560042</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/kompleksnyy_remont_kvartir_i_domov_pod_klyuch_7697302331</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>+79675560042</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733403481</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_kvartir_pod_klyuch._bez_posrednikov_7555612130</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>+79944419277</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_7555977171</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>+79944419277</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733311257</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733260363</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733031206</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/zvenigorod/predlozheniya_uslug/remont_kvartir_pod_klyuch_1650434856</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>+79854996214</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_pomescheniy_pod_klyuch_4222904413</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>+79587130971</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7623671640</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>+79587519957</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7623500044</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>+79587519957</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kommunarka/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733237708</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733099970</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_chastnaya_brigada_7733201751</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>+79365767923</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir._melkiy_remont._santehnik_1822978728</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>+79675590025</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_ot_aleksandra_7645539466</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>+79584671254</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartiry_pod_klyuch_7645117091</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>+79584671254</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/reutov/predlozheniya_uslug/professionalnyy_remont_kvartir_pod_klyuch_7645196409</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>+79584671254</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_7645390641</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>+79584671254</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_7645040488</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>+79584671254</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartirsanuzlov_pod_klyuch_784561267</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>+79031827263</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7736129923</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>+79584733703</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_chehov/predlozheniya_uslug/remont_i_otdelka_shtukaturka_styazhka_plitka_lami_2168493875</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>+79682753793</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_ne_firma_7744121158</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>+79587424957</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_garantiya_7313662211</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>+79646339755</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_moskovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_garantiya_7281589266</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>+79646339755</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_garantiya_7345032329</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>+79646339755</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7627628572</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>+79587021426</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/noginsk/predlozheniya_uslug/remont_kvartir_dizayn_proekt_noginsk_2500837491</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>+79647077169</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_pod_klyuch._stroitelstvo._otdelka_7285108992</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>+79586160339</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/demontazh_kvartirdemontazhnye_raboty_pod_klyuch_7314049671</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>+79584933168</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_chastnik_7727036639</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>+79678164378</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_kvartir_domov_kottedzhey_ofisov_2327586504</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>+79587096110</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/aprelevka/predlozheniya_uslug/remont_kvartir_pod_klyuch_4466647103</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>+79068165928</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/egorevsk/predlozheniya_uslug/remont_kvartir_domov_pod_klyuch_3448690881</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>+79682110550</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7692511099</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>+79238297859</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7692612717</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>+79238297859</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7692465278</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>+79238297859</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7677352737</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>+79698895161</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_4603368555</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>+79586034754</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_garantiya_7409755563</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>+79036824881</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/noginsk/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_s_garantiey_7723859853</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>+79587642813</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/klin/predlozheniya_uslug/remont_kvartir_7798670766</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>+79099951602</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/dolgoprudnyy/predlozheniya_uslug/remont_kvartir_kapitalnyy_remont_kvartir_otdelka_7409254716</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>+79036824881</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_garantiya_7345475988</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>+79036824881</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/tuchkovo/predlozheniya_uslug/otdelka_i_remont_vnutri_doma_7511171876</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>+79035339654</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/klin/predlozheniya_uslug/remont_kvartir_i_stroitelstvo_domov_pod_klyuch_1907426399</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>+79037824910</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kotelniki/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_s_garantiey_7734269279</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>+79587521981</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7747413049</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>+79365658300</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/lobnya/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7747311641</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>+79365658300</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/peresvet/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7747403798</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>+79365658300</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/dizayner_interera._dizayn_proekt_kvartiry_7781033000</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>+79587217714</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_7753997316</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>+79365659800</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_-_chastnyy_master_3945503969</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>+79665664621</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva_zelenograd/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch._chastnaya_brigada_7763359313</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>+79813288747</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_troitsk/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_7744736764</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>+79587149500</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/krasnoarmeysk/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7664836427</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>+79365657982</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/shatura/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7664092639</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>+79365657982</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/taldom/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7664833375</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>+79365657982</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/stupino/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7664548638</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>+79365657982</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnoznamensk/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7664821538</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>+79365657982</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_7664159113</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>+79365657982</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/orehovo-zuevo/predlozheniya_uslug/remont_kvartir_pod_klyuch_1601044650</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>+79324449042</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/serpuhov/predlozheniya_uslug/remont_kvartir_7728222230</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>+79606098757</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/melkiy_remont_v_kvartire_7646906689</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>+79067365593</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/egorevsk/predlozheniya_uslug/remont_kvartir_2135971285</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>+79584631806</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7664401438</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>+79651883247</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_pokleyka_oboev_pokraska_4574037186</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>+79060294971</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/osteklenie_balkonov_i_lodzhiy._otdelka_i_uteplenie_4425086373</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>+79057473947</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/solnechnogorsk/predlozheniya_uslug/remont_kvartira_pod_klyuch_kosmicheskiy_remont_2360753091</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>+79584862148</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/noginsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_4664392413</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>+79587163402</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_kvartir_dizayn_proekt_schelkovo_2500131285</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>+79647077169</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_dizayn_proekt_balashiha_2500402654</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>+79647077169</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch._garantiya_na_uslugi_7728330948</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>+79238298050</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kolomna/predlozheniya_uslug/remont_kvartir_pod_klyuch._remont_domov_504320427</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>+79587021356</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_prorabom_i_garantiey_7572839323</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>+79032519957</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/noginsk/predlozheniya_uslug/otdelka_kvartir_v_novostroykah.remont_kvartir_4580412001</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>+79063840145</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_7743680210</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>+79836604793</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7416102496</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>+79664440783</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_i_otdelka_kvartir_7446054186</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>+79856776871</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/schelkovo/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_7716078398</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>+79057149520</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_tochno_v_srok._garantiya_3029392113</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>+79584732836</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_3317946209</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>+79587562843</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_i_otdelka_kvartir_2725069527</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>+79587561423</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/domodedovo/predlozheniya_uslug/remont_kvartiri_domov_pod_klyuch_bez_posrednikov_3869219122</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>+79675595937</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/demontazh_sten_styazhki_i_peregorodok_7643179503</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>+79584628215</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_4391807200</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>+79325100671</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/stupino/predlozheniya_uslug/remont_stroiteltvo_2094247098</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>+79315223055</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_domov_ofisov_2652593986</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>+79682114408</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/orehovo-zuevo/predlozheniya_uslug/remont_kvartir_pod_klyuch_7767559462</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>+79057385991</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/professionalnoe_izgotovlenie_dublikatov_klyuchey_3373049473</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>+79587421723</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7707526498</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>+79588809988</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_4324590910</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>+79584881816</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/demontazh_demontazh_kvartiry_demontazhnye_raboty_1456685560</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>+79587164155</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_komplektatsiey_7678604561</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>+79654338363</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/pavlovskiy_posad/predlozheniya_uslug/remont_kvartir_pod_klyuch_7581951434</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>+79584888420</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_3618671939</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>+79660455074</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_dizayn_proekt_korolev_2499988036</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>+79647077169</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_dubna/predlozheniya_uslug/remont_kvartir_pod_klyuch._brigada_s_rukami_7766536480</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>+79660447354</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch._bez_posrednikov_7595500631</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>+79587021426</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7595459961</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>+79587021426</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_krasnogorsk/predlozheniya_uslug/remont_kvartir_global_nomad_7655001590</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>+79587529366</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_s_garantiey_7668521984</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>+79675598788</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_7721659764</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>+79584644905</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/lobnya/predlozheniya_uslug/remont_kvartir_pod_klyuch_ne_firma_7616297870</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>+79813287101</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_ivanteevka/predlozheniya_uslug/remont_kvartir_2293945400</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>+79587106105</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_4675994990</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>+79394096428</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/demontazh_kvartir._demontazh_ofisov_4135664537</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>+79584837056</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/malino/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_2283657916</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>+79584809704</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_bez_posrednikov_7343397579</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>+79584837564</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_kapitalnyy_remont_i_otdelka_7445612916</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>+79666679725</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/otdelochnye_raboty_remont_kvartir_7634916903</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>+79675590987</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_pod_klyuch_2552646165</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>+79587945886</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_i_otdelka_kvartir_i_domov_shtukatur_elektrik_2029159024</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>+79587164102</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/dzerzhinskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_7655310850</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>+79365660224</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/naro-fominsk/predlozheniya_uslug/remont_kvartir_pod_klyuch_7655163720</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>+79365660224</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_chehov/predlozheniya_uslug/remont_kvartir_pod_klyuch_7655113335</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>+79365660224</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_kvartir_pod_klyuch_7655277311</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>+79365660224</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/serpuhov/predlozheniya_uslug/remont_kvartir_pod_klyuch_7655289638</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>+79365660224</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/luhovitsy/predlozheniya_uslug/remont_i_otdelka_2054695232</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>+79663867582</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_v_dmitrove_3818830267</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>+79382229389</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/lyubertsy/predlozheniya_uslug/remont_kvartir_i_studiy_pod_klyuch_2270706792</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>+79662221429</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/vidnoe/predlozheniya_uslug/remont_kvartir_i_dach_pod_klyuch.pokleyka_oboev_1066865422</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>+79099401398</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/serpuhov/predlozheniya_uslug/remont_kvartir_domov_i_sobstvennaya_brigada_7716636328</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>+79584861379</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/ozery/predlozheniya_uslug/remont_kvartir_domov_i_sobstvennaya_brigada_7716186243</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>+79584861379</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_s_garantiey_7649435730</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>+79587527922</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch_4698627797</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>+79813330810</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/remont_kvartir_pod_klyuch_remont_i_otdelka_7656673215</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>+79663857323</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_remont_i_otdelka_7656833771</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>+79663857323</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_pod_klyuch_7659371442</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>+79881944898</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/sergiev_posad/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch_2901886865</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>+79664442153</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_moskovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_garantiya_7315828493</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>+79654337642</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/himki/predlozheniya_uslug/idealnyy_remont_kvartir_pod_klyuch_v_himkah_7766040529</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>+79067628966</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_otdelochnye_raboty_1066091235</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>+79586193733</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_4433282580</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>+79660439879</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_bez_posrednikov_7379813313</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>+79587683531</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_7656019428</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>+79587096838</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch._brigada_slavyan_4276788974</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>+79584732836</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_kvartir_pod_klyuch._chastnaya_brigada_7252421334</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>+79584732836</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/udelnaya/predlozheniya_uslug/remont_i_otdelka_kvartir_pod_klyuch._lyubye_slozhnosti_2749917739</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>+79587144925</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/beloozyorskij/predlozheniya_uslug/remont_i_otdelka_kvartir_i_domov_pod_klyuch_2536586549</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>+79584639097</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/novoivanovskoe/predlozheniya_uslug/remont_kvartir_pod_klyuch._shtukaturka_poverhnostey_7677061706</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>+79813270627</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/odintsovo/predlozheniya_uslug/remont_kvartir_pod_klyuch._pokraska_7677091797</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>+79813270627</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/podolsk/predlozheniya_uslug/remont_kvartiry_pod_klyuch_7701353739</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>+79587642765</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/sergiev_posad/predlozheniya_uslug/remont_kvartir_pod_klyuch_brigada_4576000567</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>+79651778206</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/ramenskoe/predlozheniya_uslug/remont_kvartir_i_domov_podklyuch_ot_brigady_masterov_3182456924</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>+79322042411</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/istra/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_otdelochnye_raboty_2344853292</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>+79032044934</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuchotdelka_kvartir_7577642813</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>+79854999294</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/dizayn_interera_kvartiry_doma._remont_pod_klyuch_919661796</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>+79386664869</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/korolev/predlozheniya_uslug/remont_kvartir_otdelka_-_pod_klyuch_chastnyy_master_3945171004</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>+79665664621</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_kvartir_pod_klyuch_7707465898</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>+79586151852</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_kvartir_pod_klyuch_otdelochnye_raboty_elektr_7743680784</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>+79663862066</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/reutov/predlozheniya_uslug/remont_kvartir_pod_klyuch._otdelka_kvartir_7696524534</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>+79238298050</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/mytischi/predlozheniya_uslug/remont_kvartir_pod_klyuch_7220379981</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>+79584887740</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/klin/predlozheniya_uslug/remont_kvartir_pod_klyuch_poetapnaya_oplata_7601179070</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>+79586162629</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/dmitrov/predlozheniya_uslug/remont_otdelka_kvartir_domov_bez_predoplaty_7649420780</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>+79066108917</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/pushkino/predlozheniya_uslug/remont_kvartir_otdelka_pod_klyuch_-_chastnyy_master_3944647345</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>+79665664621</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_i_domov_pod_klyuch_-_chastnyy_master_7503829422</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>+79587176704</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskovskaya_oblast_moskovskiy/predlozheniya_uslug/remont_kvartir_pod_klyuch_7721364009</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>+79584839495</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/balashiha/predlozheniya_uslug/remont_kvartir_pod_klyuch_4007979977</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>+79682110776</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/lesnoy_gorodok/predlozheniya_uslug/remont_kvartir_v_novostroykah_7537106283</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>+79881926994</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_pod_klyuch_kapitalnyy_7265292341</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>+79316663112</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/moskva/predlozheniya_uslug/remont_kvartir_otdelka_kapitalnyy_remont_7420070611</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>+79647004703</t>
         </is>
       </c>
     </row>
